--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_15_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_15_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>726465.0823625638</v>
+        <v>721567.8457746168</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23767730.23371835</v>
+        <v>23767730.23371837</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8186089.907737297</v>
+        <v>8186089.907737303</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5980107.194937663</v>
+        <v>5980107.194937662</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.3417083149189</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>285.9311321812619</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>23.06052838918344</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1451,22 +1451,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>14.77366309648276</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H12" t="n">
-        <v>38.04401443014642</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>2.375105093171405</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
@@ -1545,10 +1545,10 @@
         <v>164.6200590018132</v>
       </c>
       <c r="H13" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>167.8355178356165</v>
       </c>
       <c r="T13" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>225.4488925776322</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>94.93339631534359</v>
       </c>
       <c r="H14" t="n">
-        <v>42.81906039927253</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>115.7281862028015</v>
@@ -1697,10 +1697,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>38.04401443014642</v>
+        <v>65.92141689836602</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>5.7541230981928</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>47.10667706907977</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>167.8355178356165</v>
@@ -1849,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>329.4650632177495</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1861,10 +1861,10 @@
         <v>402.5056876845219</v>
       </c>
       <c r="H17" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T17" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>82.44137788598151</v>
       </c>
     </row>
     <row r="18">
@@ -1931,7 +1931,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>49.46162125842125</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
         <v>107.8702810193205</v>
@@ -1976,7 +1976,7 @@
         <v>85.6887943319354</v>
       </c>
       <c r="T18" t="n">
-        <v>153.1433946664671</v>
+        <v>83.31712807729267</v>
       </c>
       <c r="U18" t="n">
         <v>195.3021387078687</v>
@@ -2004,10 +2004,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6200590018132</v>
+        <v>125.4844915630625</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>35.98459909989714</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>233.0607131231338</v>
@@ -2064,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>215.1751401124627</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2098,10 +2098,10 @@
         <v>402.5056876845219</v>
       </c>
       <c r="H20" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>12.8840664146189</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>104.7777180703237</v>
       </c>
       <c r="H21" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>153.1433946664671</v>
       </c>
       <c r="U21" t="n">
         <v>195.3021387078687</v>
       </c>
       <c r="V21" t="n">
-        <v>131.1081627585014</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
@@ -2228,7 +2228,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>68.89274971224555</v>
       </c>
     </row>
     <row r="22">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.268966843074981</v>
+        <v>92.79775998382559</v>
       </c>
       <c r="H22" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9179208068699</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>328.2458591778579</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>48.24419725261182</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,16 +2481,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>126.1391045943606</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>5.385348042290993</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2541,7 +2541,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>142.2974779941585</v>
       </c>
       <c r="H26" t="n">
-        <v>254.2163220222157</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I26" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T26" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>85.6887943319354</v>
+        <v>85.68879433193592</v>
       </c>
       <c r="T27" t="n">
         <v>153.1433946664671</v>
@@ -2715,19 +2715,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.205998418005315</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>98.10907021764214</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U28" t="n">
         <v>279.9179208068699</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>285.9311321812619</v>
+        <v>177.162073172263</v>
       </c>
       <c r="I29" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>210.6370840092685</v>
       </c>
       <c r="U29" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>90.16206365568317</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>16.29808172637418</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -2967,10 +2967,10 @@
         <v>164.6200590018132</v>
       </c>
       <c r="H31" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>167.8355178356165</v>
       </c>
       <c r="T31" t="n">
-        <v>73.7833313618906</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>402.5056876845219</v>
       </c>
       <c r="H32" t="n">
-        <v>11.62060716797619</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>147.3227022755918</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>21.52262765295932</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>167.8355178356165</v>
@@ -3243,7 +3243,7 @@
         <v>233.0607131231338</v>
       </c>
       <c r="U34" t="n">
-        <v>228.6651829007243</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3252,7 +3252,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>34.47438663781394</v>
+        <v>256.646294534667</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>210.6370840092685</v>
@@ -3328,10 +3328,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3359,10 +3359,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>104.7777180703237</v>
+        <v>15.86252774276077</v>
       </c>
       <c r="H36" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>153.1433946664671</v>
       </c>
       <c r="U36" t="n">
         <v>195.3021387078687</v>
       </c>
       <c r="V36" t="n">
-        <v>131.1081627585009</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
         <v>211.1008365810345</v>
@@ -3429,19 +3429,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>43.52859094355502</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H37" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T37" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>182.974969914485</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.6370840092685</v>
+        <v>98.24949571631748</v>
       </c>
       <c r="U38" t="n">
-        <v>238.2053211698663</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3593,7 +3593,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>38.04401443014598</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>85.6887943319354</v>
+        <v>15.86252774276089</v>
       </c>
       <c r="T39" t="n">
         <v>153.1433946664671</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>120.7207710836102</v>
       </c>
       <c r="G40" t="n">
-        <v>139.6549676675616</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3754,10 +3754,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>100.3358927929698</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>4.09134412232718</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.9000023092308</v>
+        <v>122.1039576895406</v>
       </c>
       <c r="C42" t="n">
         <v>132.6551205385437</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>85.64753171493346</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T42" t="n">
         <v>153.1433946664671</v>
@@ -3884,10 +3884,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>135.2522544599678</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I43" t="n">
-        <v>86.37808034979749</v>
+        <v>82.31264833830114</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T43" t="n">
         <v>233.0607131231338</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>42.81906039927209</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>9.717498212162436</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>132.6551205385437</v>
@@ -4067,7 +4067,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>72.16629866905282</v>
       </c>
       <c r="G45" t="n">
         <v>104.7777180703237</v>
@@ -4118,7 +4118,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>36.49685192153622</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>120.2291313191365</v>
+        <v>102.8361155425044</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -4146,13 +4146,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T46" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1566.50234517234</v>
+        <v>1150.054657894638</v>
       </c>
       <c r="C11" t="n">
-        <v>1566.50234517234</v>
+        <v>1150.054657894638</v>
       </c>
       <c r="D11" t="n">
-        <v>1566.50234517234</v>
+        <v>745.590727987699</v>
       </c>
       <c r="E11" t="n">
-        <v>1152.162129689236</v>
+        <v>745.590727987699</v>
       </c>
       <c r="F11" t="n">
-        <v>731.1317176429238</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="G11" t="n">
         <v>324.5603159413865</v>
       </c>
       <c r="H11" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I11" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J11" t="n">
-        <v>142.57038546899</v>
+        <v>142.5703854689898</v>
       </c>
       <c r="K11" t="n">
-        <v>323.229055744659</v>
+        <v>323.2290557446588</v>
       </c>
       <c r="L11" t="n">
-        <v>562.2973247064788</v>
+        <v>562.2973247064785</v>
       </c>
       <c r="M11" t="n">
-        <v>841.1329596152975</v>
+        <v>841.1329596152972</v>
       </c>
       <c r="N11" t="n">
         <v>1126.349039004049</v>
       </c>
       <c r="O11" t="n">
-        <v>1390.269714189819</v>
+        <v>1390.269714189818</v>
       </c>
       <c r="P11" t="n">
-        <v>1601.546999092374</v>
+        <v>1601.546999092373</v>
       </c>
       <c r="Q11" t="n">
-        <v>1740.697478824118</v>
+        <v>1740.697478824117</v>
       </c>
       <c r="R11" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S11" t="n">
-        <v>1787.049525288419</v>
+        <v>1763.756062269042</v>
       </c>
       <c r="T11" t="n">
-        <v>1787.049525288419</v>
+        <v>1550.991330946548</v>
       </c>
       <c r="U11" t="n">
-        <v>1787.049525288419</v>
+        <v>1550.991330946548</v>
       </c>
       <c r="V11" t="n">
-        <v>1787.049525288419</v>
+        <v>1550.991330946548</v>
       </c>
       <c r="W11" t="n">
-        <v>1787.049525288419</v>
+        <v>1550.991330946548</v>
       </c>
       <c r="X11" t="n">
-        <v>1787.049525288419</v>
+        <v>1550.991330946548</v>
       </c>
       <c r="Y11" t="n">
-        <v>1787.049525288419</v>
+        <v>1150.054657894638</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>445.5543329492906</v>
+        <v>445.5543329492901</v>
       </c>
       <c r="C12" t="n">
-        <v>311.5592616982363</v>
+        <v>430.6314409326409</v>
       </c>
       <c r="D12" t="n">
-        <v>194.6621039176287</v>
+        <v>430.6314409326409</v>
       </c>
       <c r="E12" t="n">
-        <v>74.16928790995669</v>
+        <v>310.1386249249689</v>
       </c>
       <c r="F12" t="n">
-        <v>74.16928790995669</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="G12" t="n">
-        <v>74.16928790995669</v>
+        <v>95.34266624856059</v>
       </c>
       <c r="H12" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I12" t="n">
-        <v>54.34778796170229</v>
+        <v>54.34778796170228</v>
       </c>
       <c r="J12" t="n">
-        <v>110.3534157295929</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K12" t="n">
-        <v>552.6481732384767</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L12" t="n">
-        <v>841.6676203895096</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M12" t="n">
-        <v>1071.2659546694</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N12" t="n">
-        <v>1312.776574857391</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O12" t="n">
-        <v>1524.712592344458</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P12" t="n">
-        <v>1686.980039158656</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q12" t="n">
         <v>1775.234255540019</v>
@@ -5147,25 +5147,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S12" t="n">
-        <v>1700.495187579394</v>
+        <v>1700.495187579393</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.804889936498</v>
+        <v>1545.804889936497</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.530002352792</v>
+        <v>1348.530002352791</v>
       </c>
       <c r="V12" t="n">
-        <v>1134.818475345826</v>
+        <v>1134.818475345825</v>
       </c>
       <c r="W12" t="n">
-        <v>921.5853070821544</v>
+        <v>921.5853070821539</v>
       </c>
       <c r="X12" t="n">
-        <v>745.2593252210472</v>
+        <v>745.2593252210468</v>
       </c>
       <c r="Y12" t="n">
-        <v>585.8573655848772</v>
+        <v>585.8573655848768</v>
       </c>
     </row>
     <row r="13">
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>927.8981759097683</v>
+        <v>697.24302139117</v>
       </c>
       <c r="C13" t="n">
-        <v>756.8048034714848</v>
+        <v>526.1496489528865</v>
       </c>
       <c r="D13" t="n">
-        <v>597.3101587943947</v>
+        <v>366.6550042757966</v>
       </c>
       <c r="E13" t="n">
-        <v>594.9110627406862</v>
+        <v>366.6550042757966</v>
       </c>
       <c r="F13" t="n">
-        <v>430.2799368512775</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="G13" t="n">
-        <v>263.9970489706581</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H13" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I13" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J13" t="n">
-        <v>51.86344281542368</v>
+        <v>116.8648064467601</v>
       </c>
       <c r="K13" t="n">
-        <v>110.3049721335449</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L13" t="n">
-        <v>451.4831578130901</v>
+        <v>782.4625254678897</v>
       </c>
       <c r="M13" t="n">
-        <v>889.389693214169</v>
+        <v>875.4027113546831</v>
       </c>
       <c r="N13" t="n">
-        <v>1315.336568651599</v>
+        <v>1301.349586792113</v>
       </c>
       <c r="O13" t="n">
-        <v>1708.927989328892</v>
+        <v>1379.866248050666</v>
       </c>
       <c r="P13" t="n">
-        <v>1768.392458898499</v>
+        <v>1700.22820109339</v>
       </c>
       <c r="Q13" t="n">
         <v>1787.049525288419</v>
@@ -5229,22 +5229,22 @@
         <v>1575.748442655587</v>
       </c>
       <c r="T13" t="n">
-        <v>1340.333580915048</v>
+        <v>1575.748442655587</v>
       </c>
       <c r="U13" t="n">
-        <v>1340.333580915048</v>
+        <v>1348.022288536766</v>
       </c>
       <c r="V13" t="n">
-        <v>1340.333580915048</v>
+        <v>1348.022288536766</v>
       </c>
       <c r="W13" t="n">
-        <v>1340.333580915048</v>
+        <v>1348.022288536766</v>
       </c>
       <c r="X13" t="n">
-        <v>1340.333580915048</v>
+        <v>1109.67842639645</v>
       </c>
       <c r="Y13" t="n">
-        <v>1115.597882303813</v>
+        <v>884.9427277852144</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>489.1171573533796</v>
+        <v>950.4374554062592</v>
       </c>
       <c r="C14" t="n">
-        <v>78.99256666664974</v>
+        <v>950.4374554062592</v>
       </c>
       <c r="D14" t="n">
-        <v>78.99256666664974</v>
+        <v>545.9735254993197</v>
       </c>
       <c r="E14" t="n">
-        <v>78.99256666664974</v>
+        <v>131.6333100162165</v>
       </c>
       <c r="F14" t="n">
-        <v>78.99256666664974</v>
+        <v>131.6333100162165</v>
       </c>
       <c r="G14" t="n">
-        <v>78.99256666664974</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H14" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I14" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J14" t="n">
-        <v>142.5703854689901</v>
+        <v>142.5703854689898</v>
       </c>
       <c r="K14" t="n">
-        <v>323.2290557446591</v>
+        <v>323.2290557446588</v>
       </c>
       <c r="L14" t="n">
-        <v>562.2973247064788</v>
+        <v>562.2973247064785</v>
       </c>
       <c r="M14" t="n">
-        <v>841.1329596152976</v>
+        <v>841.1329596152972</v>
       </c>
       <c r="N14" t="n">
-        <v>1126.34903900405</v>
+        <v>1126.349039004049</v>
       </c>
       <c r="O14" t="n">
         <v>1390.269714189818</v>
       </c>
       <c r="P14" t="n">
-        <v>1601.546999092374</v>
+        <v>1601.546999092373</v>
       </c>
       <c r="Q14" t="n">
-        <v>1740.697478824118</v>
+        <v>1740.697478824117</v>
       </c>
       <c r="R14" t="n">
         <v>1787.049525288419</v>
@@ -5314,16 +5314,16 @@
         <v>1700.918407900826</v>
       </c>
       <c r="V14" t="n">
-        <v>1700.918407900826</v>
+        <v>1351.080853237307</v>
       </c>
       <c r="W14" t="n">
-        <v>1700.918407900826</v>
+        <v>1351.080853237307</v>
       </c>
       <c r="X14" t="n">
-        <v>1300.275010069779</v>
+        <v>950.4374554062592</v>
       </c>
       <c r="Y14" t="n">
-        <v>899.3383370178691</v>
+        <v>950.4374554062592</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>445.5543329492906</v>
+        <v>445.5543329492901</v>
       </c>
       <c r="C15" t="n">
-        <v>311.5592616982363</v>
+        <v>445.5543329492901</v>
       </c>
       <c r="D15" t="n">
-        <v>194.6621039176287</v>
+        <v>328.6571751686826</v>
       </c>
       <c r="E15" t="n">
-        <v>74.16928790995669</v>
+        <v>208.1643591610105</v>
       </c>
       <c r="F15" t="n">
-        <v>35.74099050576839</v>
+        <v>141.5770693646812</v>
       </c>
       <c r="G15" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H15" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I15" t="n">
-        <v>54.34778796170229</v>
+        <v>54.34778796170228</v>
       </c>
       <c r="J15" t="n">
-        <v>223.593876829148</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K15" t="n">
-        <v>350.9691191432127</v>
+        <v>651.6352588491868</v>
       </c>
       <c r="L15" t="n">
-        <v>541.001480683535</v>
+        <v>841.6676203895091</v>
       </c>
       <c r="M15" t="n">
-        <v>983.2962381924187</v>
+        <v>1071.2659546694</v>
       </c>
       <c r="N15" t="n">
-        <v>1224.80685838041</v>
+        <v>1312.776574857391</v>
       </c>
       <c r="O15" t="n">
-        <v>1436.742875867477</v>
+        <v>1524.712592344458</v>
       </c>
       <c r="P15" t="n">
-        <v>1599.010322681675</v>
+        <v>1686.980039158656</v>
       </c>
       <c r="Q15" t="n">
-        <v>1687.264539063038</v>
+        <v>1775.234255540019</v>
       </c>
       <c r="R15" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S15" t="n">
-        <v>1700.495187579394</v>
+        <v>1700.495187579393</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.804889936498</v>
+        <v>1545.804889936497</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.530002352792</v>
+        <v>1348.530002352791</v>
       </c>
       <c r="V15" t="n">
-        <v>1134.818475345826</v>
+        <v>1134.818475345825</v>
       </c>
       <c r="W15" t="n">
-        <v>921.5853070821544</v>
+        <v>921.5853070821539</v>
       </c>
       <c r="X15" t="n">
-        <v>745.2593252210472</v>
+        <v>745.2593252210468</v>
       </c>
       <c r="Y15" t="n">
-        <v>585.8573655848772</v>
+        <v>585.8573655848768</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.55323605949849</v>
+        <v>83.32349259574795</v>
       </c>
       <c r="C16" t="n">
-        <v>35.74099050576839</v>
+        <v>83.32349259574795</v>
       </c>
       <c r="D16" t="n">
-        <v>35.74099050576839</v>
+        <v>83.32349259574795</v>
       </c>
       <c r="E16" t="n">
-        <v>35.74099050576839</v>
+        <v>83.32349259574795</v>
       </c>
       <c r="F16" t="n">
-        <v>35.74099050576839</v>
+        <v>83.32349259574795</v>
       </c>
       <c r="G16" t="n">
-        <v>35.74099050576839</v>
+        <v>83.32349259574795</v>
       </c>
       <c r="H16" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I16" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J16" t="n">
-        <v>51.86344281542368</v>
+        <v>116.8648064467601</v>
       </c>
       <c r="K16" t="n">
-        <v>316.5851657192591</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L16" t="n">
-        <v>717.4611618365533</v>
+        <v>782.4625254678897</v>
       </c>
       <c r="M16" t="n">
-        <v>1149.32731040154</v>
+        <v>875.4027113546831</v>
       </c>
       <c r="N16" t="n">
-        <v>1243.239884391384</v>
+        <v>969.3152853445271</v>
       </c>
       <c r="O16" t="n">
         <v>1321.756545649937</v>
       </c>
       <c r="P16" t="n">
-        <v>1642.118498692662</v>
+        <v>1642.118498692661</v>
       </c>
       <c r="Q16" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R16" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S16" t="n">
-        <v>1575.748442655587</v>
+        <v>1617.518699191837</v>
       </c>
       <c r="T16" t="n">
-        <v>1340.333580915048</v>
+        <v>1382.103837451297</v>
       </c>
       <c r="U16" t="n">
-        <v>1057.588206362654</v>
+        <v>1099.358462898904</v>
       </c>
       <c r="V16" t="n">
-        <v>783.7024613021761</v>
+        <v>825.4727178384255</v>
       </c>
       <c r="W16" t="n">
-        <v>504.6327968110504</v>
+        <v>546.4030533472999</v>
       </c>
       <c r="X16" t="n">
-        <v>266.2889346707338</v>
+        <v>308.0591912069833</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.55323605949849</v>
+        <v>83.32349259574795</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1488.153676578333</v>
+        <v>1267.806734160558</v>
       </c>
       <c r="C17" t="n">
-        <v>1488.153676578333</v>
+        <v>1267.806734160558</v>
       </c>
       <c r="D17" t="n">
-        <v>1488.153676578333</v>
+        <v>863.3428042536182</v>
       </c>
       <c r="E17" t="n">
-        <v>1155.360683429091</v>
+        <v>863.3428042536182</v>
       </c>
       <c r="F17" t="n">
-        <v>734.3302713827786</v>
+        <v>442.3123922073057</v>
       </c>
       <c r="G17" t="n">
-        <v>327.7588696812413</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H17" t="n">
-        <v>38.93954424562315</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I17" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J17" t="n">
         <v>142.5703854689898</v>
@@ -5533,10 +5533,10 @@
         <v>1390.269714189818</v>
       </c>
       <c r="P17" t="n">
-        <v>1601.546999092374</v>
+        <v>1601.546999092373</v>
       </c>
       <c r="Q17" t="n">
-        <v>1740.697478824118</v>
+        <v>1740.697478824117</v>
       </c>
       <c r="R17" t="n">
         <v>1787.049525288419</v>
@@ -5545,22 +5545,22 @@
         <v>1700.918407900826</v>
       </c>
       <c r="T17" t="n">
-        <v>1488.153676578333</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="U17" t="n">
-        <v>1488.153676578333</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="V17" t="n">
-        <v>1488.153676578333</v>
+        <v>1351.080853237307</v>
       </c>
       <c r="W17" t="n">
-        <v>1488.153676578333</v>
+        <v>1351.080853237307</v>
       </c>
       <c r="X17" t="n">
-        <v>1488.153676578333</v>
+        <v>1351.080853237307</v>
       </c>
       <c r="Y17" t="n">
-        <v>1488.153676578333</v>
+        <v>1267.806734160558</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>445.5543329492906</v>
+        <v>516.0859153625977</v>
       </c>
       <c r="C18" t="n">
-        <v>311.5592616982363</v>
+        <v>382.0908441115434</v>
       </c>
       <c r="D18" t="n">
-        <v>194.6621039176287</v>
+        <v>265.1936863309359</v>
       </c>
       <c r="E18" t="n">
         <v>144.7008703232638</v>
       </c>
       <c r="F18" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="G18" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H18" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I18" t="n">
-        <v>35.74099050576839</v>
+        <v>54.34778796170228</v>
       </c>
       <c r="J18" t="n">
-        <v>293.9012765133062</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K18" t="n">
-        <v>421.2765188273709</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L18" t="n">
-        <v>611.3088803676932</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M18" t="n">
-        <v>840.9072146475837</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N18" t="n">
-        <v>1082.417834835575</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O18" t="n">
-        <v>1524.712592344458</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P18" t="n">
-        <v>1686.980039158656</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q18" t="n">
-        <v>1775.234255540019</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R18" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S18" t="n">
-        <v>1700.495187579394</v>
+        <v>1700.495187579393</v>
       </c>
       <c r="T18" t="n">
-        <v>1545.804889936498</v>
+        <v>1616.336472349805</v>
       </c>
       <c r="U18" t="n">
-        <v>1348.530002352792</v>
+        <v>1419.061584766099</v>
       </c>
       <c r="V18" t="n">
-        <v>1134.818475345826</v>
+        <v>1205.350057759133</v>
       </c>
       <c r="W18" t="n">
-        <v>921.5853070821544</v>
+        <v>992.1168894954615</v>
       </c>
       <c r="X18" t="n">
-        <v>745.2593252210472</v>
+        <v>815.7909076343543</v>
       </c>
       <c r="Y18" t="n">
-        <v>585.8573655848772</v>
+        <v>656.3889479981843</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>532.6118955017613</v>
+        <v>303.4984744386026</v>
       </c>
       <c r="C19" t="n">
-        <v>361.5185230634778</v>
+        <v>303.4984744386026</v>
       </c>
       <c r="D19" t="n">
-        <v>202.0238783863878</v>
+        <v>303.4984744386026</v>
       </c>
       <c r="E19" t="n">
-        <v>202.0238783863878</v>
+        <v>303.4984744386026</v>
       </c>
       <c r="F19" t="n">
-        <v>202.0238783863878</v>
+        <v>303.4984744386026</v>
       </c>
       <c r="G19" t="n">
-        <v>35.74099050576839</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="H19" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I19" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J19" t="n">
-        <v>51.86344281542368</v>
+        <v>116.8648064467601</v>
       </c>
       <c r="K19" t="n">
-        <v>110.3049721335449</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L19" t="n">
-        <v>451.4831578130901</v>
+        <v>711.4207750004605</v>
       </c>
       <c r="M19" t="n">
-        <v>889.389693214169</v>
+        <v>1149.327310401539</v>
       </c>
       <c r="N19" t="n">
-        <v>1315.336568651599</v>
+        <v>1243.239884391383</v>
       </c>
       <c r="O19" t="n">
-        <v>1708.927989328892</v>
+        <v>1321.756545649937</v>
       </c>
       <c r="P19" t="n">
-        <v>1768.392458898499</v>
+        <v>1642.118498692661</v>
       </c>
       <c r="Q19" t="n">
         <v>1787.049525288419</v>
@@ -5700,25 +5700,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S19" t="n">
-        <v>1750.701445389533</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T19" t="n">
-        <v>1515.286583648994</v>
+        <v>1551.63466354788</v>
       </c>
       <c r="U19" t="n">
-        <v>1232.5412090966</v>
+        <v>1268.889288995486</v>
       </c>
       <c r="V19" t="n">
-        <v>958.6554640361223</v>
+        <v>995.0035439350079</v>
       </c>
       <c r="W19" t="n">
-        <v>958.6554640361223</v>
+        <v>715.9338794438822</v>
       </c>
       <c r="X19" t="n">
-        <v>720.3116018958057</v>
+        <v>715.9338794438822</v>
       </c>
       <c r="Y19" t="n">
-        <v>720.3116018958057</v>
+        <v>491.1981808326469</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1787.049525288419</v>
+        <v>1277.683019736721</v>
       </c>
       <c r="C20" t="n">
-        <v>1787.049525288419</v>
+        <v>1277.683019736721</v>
       </c>
       <c r="D20" t="n">
-        <v>1569.700898912194</v>
+        <v>1277.683019736721</v>
       </c>
       <c r="E20" t="n">
-        <v>1155.360683429091</v>
+        <v>863.3428042536182</v>
       </c>
       <c r="F20" t="n">
-        <v>734.3302713827786</v>
+        <v>442.3123922073057</v>
       </c>
       <c r="G20" t="n">
-        <v>327.7588696812413</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H20" t="n">
-        <v>38.93954424562315</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I20" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J20" t="n">
-        <v>142.5703854689904</v>
+        <v>142.5703854689898</v>
       </c>
       <c r="K20" t="n">
-        <v>323.2290557446594</v>
+        <v>323.2290557446588</v>
       </c>
       <c r="L20" t="n">
-        <v>562.297324706479</v>
+        <v>562.2973247064785</v>
       </c>
       <c r="M20" t="n">
-        <v>841.1329596152979</v>
+        <v>841.1329596152974</v>
       </c>
       <c r="N20" t="n">
-        <v>1126.34903900405</v>
+        <v>1126.349039004049</v>
       </c>
       <c r="O20" t="n">
-        <v>1390.269714189819</v>
+        <v>1390.269714189818</v>
       </c>
       <c r="P20" t="n">
         <v>1601.546999092374</v>
       </c>
       <c r="Q20" t="n">
-        <v>1740.697478824118</v>
+        <v>1740.697478824117</v>
       </c>
       <c r="R20" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S20" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T20" t="n">
-        <v>1787.049525288419</v>
+        <v>1687.904199401211</v>
       </c>
       <c r="U20" t="n">
-        <v>1787.049525288419</v>
+        <v>1687.904199401211</v>
       </c>
       <c r="V20" t="n">
-        <v>1787.049525288419</v>
+        <v>1687.904199401211</v>
       </c>
       <c r="W20" t="n">
-        <v>1787.049525288419</v>
+        <v>1687.904199401211</v>
       </c>
       <c r="X20" t="n">
-        <v>1787.049525288419</v>
+        <v>1687.904199401211</v>
       </c>
       <c r="Y20" t="n">
-        <v>1787.049525288419</v>
+        <v>1687.904199401211</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>681.5236699643028</v>
+        <v>621.9219942215105</v>
       </c>
       <c r="C21" t="n">
-        <v>547.5285987132485</v>
+        <v>487.9269229704562</v>
       </c>
       <c r="D21" t="n">
-        <v>430.6314409326409</v>
+        <v>371.0297651898487</v>
       </c>
       <c r="E21" t="n">
-        <v>310.1386249249689</v>
+        <v>250.5369491821766</v>
       </c>
       <c r="F21" t="n">
-        <v>201.1787451074734</v>
+        <v>141.5770693646812</v>
       </c>
       <c r="G21" t="n">
-        <v>95.3426662485606</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H21" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I21" t="n">
-        <v>35.74099050576839</v>
+        <v>54.34778796170228</v>
       </c>
       <c r="J21" t="n">
-        <v>293.9012765133062</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K21" t="n">
-        <v>421.2765188273709</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L21" t="n">
-        <v>611.3088803676932</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M21" t="n">
-        <v>840.9072146475837</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N21" t="n">
-        <v>1082.417834835575</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O21" t="n">
-        <v>1524.712592344458</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P21" t="n">
-        <v>1686.980039158656</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q21" t="n">
-        <v>1775.234255540019</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R21" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S21" t="n">
-        <v>1700.495187579394</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T21" t="n">
-        <v>1700.495187579394</v>
+        <v>1632.359227645523</v>
       </c>
       <c r="U21" t="n">
-        <v>1503.220299995688</v>
+        <v>1435.084340061817</v>
       </c>
       <c r="V21" t="n">
-        <v>1370.787812360838</v>
+        <v>1221.372813054851</v>
       </c>
       <c r="W21" t="n">
-        <v>1157.554644097167</v>
+        <v>1008.13964479118</v>
       </c>
       <c r="X21" t="n">
-        <v>981.2286622360594</v>
+        <v>831.8136629300725</v>
       </c>
       <c r="Y21" t="n">
-        <v>821.8267025998895</v>
+        <v>762.2250268570972</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.2889346707338</v>
+        <v>300.5694740388252</v>
       </c>
       <c r="C22" t="n">
-        <v>266.2889346707338</v>
+        <v>129.4761016005417</v>
       </c>
       <c r="D22" t="n">
-        <v>266.2889346707338</v>
+        <v>129.4761016005417</v>
       </c>
       <c r="E22" t="n">
-        <v>266.2889346707338</v>
+        <v>129.4761016005417</v>
       </c>
       <c r="F22" t="n">
-        <v>266.2889346707338</v>
+        <v>129.4761016005417</v>
       </c>
       <c r="G22" t="n">
-        <v>263.9970489706581</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H22" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I22" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J22" t="n">
         <v>51.86344281542368</v>
@@ -5925,37 +5925,37 @@
         <v>1236.348223160776</v>
       </c>
       <c r="O22" t="n">
-        <v>1321.756545649937</v>
+        <v>1629.93964383807</v>
       </c>
       <c r="P22" t="n">
-        <v>1642.118498692662</v>
+        <v>1768.392458898498</v>
       </c>
       <c r="Q22" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R22" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S22" t="n">
-        <v>1575.748442655587</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T22" t="n">
-        <v>1340.333580915048</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="U22" t="n">
-        <v>1057.588206362654</v>
+        <v>1504.304150736025</v>
       </c>
       <c r="V22" t="n">
-        <v>783.7024613021761</v>
+        <v>1230.418405675547</v>
       </c>
       <c r="W22" t="n">
-        <v>504.6327968110504</v>
+        <v>951.3487411844214</v>
       </c>
       <c r="X22" t="n">
-        <v>266.2889346707338</v>
+        <v>713.0048790441049</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.2889346707338</v>
+        <v>488.2691804328696</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1167.945197966065</v>
+        <v>1286.051909477323</v>
       </c>
       <c r="C23" t="n">
-        <v>1167.945197966065</v>
+        <v>875.9273187905926</v>
       </c>
       <c r="D23" t="n">
-        <v>1167.945197966065</v>
+        <v>875.9273187905926</v>
       </c>
       <c r="E23" t="n">
-        <v>753.6049824829621</v>
+        <v>461.5871033074893</v>
       </c>
       <c r="F23" t="n">
-        <v>332.5745704366497</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="G23" t="n">
-        <v>332.5745704366497</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="H23" t="n">
-        <v>43.75524500103157</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="I23" t="n">
-        <v>40.5566912611768</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="J23" t="n">
-        <v>147.3860862243982</v>
+        <v>256.3597561632702</v>
       </c>
       <c r="K23" t="n">
-        <v>328.0447565000673</v>
+        <v>437.0184264389392</v>
       </c>
       <c r="L23" t="n">
-        <v>567.1130254618869</v>
+        <v>676.0866954007588</v>
       </c>
       <c r="M23" t="n">
-        <v>1069.00207981895</v>
+        <v>954.9223303095777</v>
       </c>
       <c r="N23" t="n">
-        <v>1354.218159207702</v>
+        <v>1240.13840969833</v>
       </c>
       <c r="O23" t="n">
-        <v>1618.13883439347</v>
+        <v>1504.059084884098</v>
       </c>
       <c r="P23" t="n">
-        <v>1829.416119296026</v>
+        <v>1715.336369786654</v>
       </c>
       <c r="Q23" t="n">
-        <v>1968.56659902777</v>
+        <v>1854.486849518398</v>
       </c>
       <c r="R23" t="n">
         <v>2027.83456305884</v>
@@ -6025,16 +6025,16 @@
         <v>2027.83456305884</v>
       </c>
       <c r="V23" t="n">
-        <v>2027.83456305884</v>
+        <v>1696.273089141812</v>
       </c>
       <c r="W23" t="n">
-        <v>2027.83456305884</v>
+        <v>1696.273089141812</v>
       </c>
       <c r="X23" t="n">
-        <v>1979.103050682465</v>
+        <v>1696.273089141812</v>
       </c>
       <c r="Y23" t="n">
-        <v>1578.166377630555</v>
+        <v>1696.273089141812</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>686.3393707197113</v>
+        <v>686.3393707197114</v>
       </c>
       <c r="C24" t="n">
-        <v>552.344299468657</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D24" t="n">
-        <v>435.4471416880494</v>
+        <v>435.4471416880497</v>
       </c>
       <c r="E24" t="n">
-        <v>314.9543256803775</v>
+        <v>314.9543256803777</v>
       </c>
       <c r="F24" t="n">
-        <v>205.994445862882</v>
+        <v>205.9944458628822</v>
       </c>
       <c r="G24" t="n">
-        <v>100.158367003969</v>
+        <v>100.1583670039692</v>
       </c>
       <c r="H24" t="n">
-        <v>40.5566912611768</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="I24" t="n">
-        <v>59.1634887171107</v>
+        <v>59.16348871711071</v>
       </c>
       <c r="J24" t="n">
-        <v>115.1691164850013</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K24" t="n">
-        <v>492.593887325886</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L24" t="n">
-        <v>994.482941682949</v>
+        <v>676.2451243140215</v>
       </c>
       <c r="M24" t="n">
-        <v>1224.08127596284</v>
+        <v>905.843458593912</v>
       </c>
       <c r="N24" t="n">
-        <v>1465.591896150831</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O24" t="n">
-        <v>1677.527913637898</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P24" t="n">
-        <v>1839.795360452096</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q24" t="n">
         <v>1928.049576833459</v>
@@ -6095,25 +6095,25 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S24" t="n">
-        <v>1941.280225349814</v>
+        <v>1941.280225349815</v>
       </c>
       <c r="T24" t="n">
-        <v>1786.589927706918</v>
+        <v>1786.589927706919</v>
       </c>
       <c r="U24" t="n">
-        <v>1589.315040123212</v>
+        <v>1589.315040123213</v>
       </c>
       <c r="V24" t="n">
-        <v>1375.603513116246</v>
+        <v>1375.603513116247</v>
       </c>
       <c r="W24" t="n">
         <v>1162.370344852575</v>
       </c>
       <c r="X24" t="n">
-        <v>986.0443629914679</v>
+        <v>986.044362991468</v>
       </c>
       <c r="Y24" t="n">
-        <v>826.6424033552979</v>
+        <v>826.642403355298</v>
       </c>
     </row>
     <row r="25">
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>824.0998863616402</v>
+        <v>538.8437667117603</v>
       </c>
       <c r="C25" t="n">
-        <v>653.0065139233567</v>
+        <v>367.7503942734768</v>
       </c>
       <c r="D25" t="n">
-        <v>493.5118692462667</v>
+        <v>367.7503942734768</v>
       </c>
       <c r="E25" t="n">
-        <v>332.6010541145862</v>
+        <v>206.8395791417962</v>
       </c>
       <c r="F25" t="n">
-        <v>167.9699282251775</v>
+        <v>206.8395791417962</v>
       </c>
       <c r="G25" t="n">
-        <v>40.5566912611768</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="H25" t="n">
-        <v>40.5566912611768</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="I25" t="n">
-        <v>40.5566912611768</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="J25" t="n">
-        <v>56.6791435708321</v>
+        <v>121.6805072021685</v>
       </c>
       <c r="K25" t="n">
-        <v>115.1206728889534</v>
+        <v>180.1220365202897</v>
       </c>
       <c r="L25" t="n">
-        <v>515.9966690062475</v>
+        <v>580.9980326375839</v>
       </c>
       <c r="M25" t="n">
-        <v>953.9032044073265</v>
+        <v>1018.904568038663</v>
       </c>
       <c r="N25" t="n">
-        <v>1379.850079844756</v>
+        <v>1444.851443476092</v>
       </c>
       <c r="O25" t="n">
-        <v>1773.44150052205</v>
+        <v>1838.442864153386</v>
       </c>
       <c r="P25" t="n">
-        <v>2009.17749666892</v>
+        <v>1897.907333722993</v>
       </c>
       <c r="Q25" t="n">
         <v>2027.83456305884</v>
@@ -6174,25 +6174,25 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S25" t="n">
-        <v>2027.83456305884</v>
+        <v>2022.394817561577</v>
       </c>
       <c r="T25" t="n">
-        <v>2027.83456305884</v>
+        <v>1786.979955821037</v>
       </c>
       <c r="U25" t="n">
-        <v>2027.83456305884</v>
+        <v>1504.234581268644</v>
       </c>
       <c r="V25" t="n">
-        <v>1753.948817998362</v>
+        <v>1230.348836208166</v>
       </c>
       <c r="W25" t="n">
-        <v>1474.879153507236</v>
+        <v>951.27917171704</v>
       </c>
       <c r="X25" t="n">
-        <v>1236.53529136692</v>
+        <v>951.27917171704</v>
       </c>
       <c r="Y25" t="n">
-        <v>1011.799592755685</v>
+        <v>726.5434731058047</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>721.5698207061478</v>
+        <v>883.2354336402506</v>
       </c>
       <c r="C26" t="n">
-        <v>721.5698207061478</v>
+        <v>473.1108429535207</v>
       </c>
       <c r="D26" t="n">
-        <v>721.5698207061478</v>
+        <v>473.1108429535207</v>
       </c>
       <c r="E26" t="n">
-        <v>721.5698207061478</v>
+        <v>473.1108429535207</v>
       </c>
       <c r="F26" t="n">
-        <v>300.5394086598353</v>
+        <v>473.1108429535207</v>
       </c>
       <c r="G26" t="n">
-        <v>300.5394086598353</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="H26" t="n">
-        <v>43.75524500103157</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="I26" t="n">
-        <v>40.5566912611768</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="J26" t="n">
-        <v>383.355423239411</v>
+        <v>147.3860862243982</v>
       </c>
       <c r="K26" t="n">
-        <v>564.01409351508</v>
+        <v>328.0447565000673</v>
       </c>
       <c r="L26" t="n">
-        <v>803.0823624768997</v>
+        <v>567.1130254618869</v>
       </c>
       <c r="M26" t="n">
-        <v>1081.917997385719</v>
+        <v>845.9486603707057</v>
       </c>
       <c r="N26" t="n">
-        <v>1367.134076774471</v>
+        <v>1131.164739759458</v>
       </c>
       <c r="O26" t="n">
-        <v>1631.054751960239</v>
+        <v>1395.085414945227</v>
       </c>
       <c r="P26" t="n">
-        <v>1842.332036862795</v>
+        <v>1715.336369786654</v>
       </c>
       <c r="Q26" t="n">
-        <v>1981.482516594539</v>
+        <v>1854.486849518398</v>
       </c>
       <c r="R26" t="n">
         <v>2027.83456305884</v>
@@ -6256,22 +6256,22 @@
         <v>1941.703445671247</v>
       </c>
       <c r="T26" t="n">
-        <v>1728.938714348754</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="U26" t="n">
-        <v>1472.050773200715</v>
+        <v>1684.815504523208</v>
       </c>
       <c r="V26" t="n">
-        <v>1122.213218537195</v>
+        <v>1684.815504523208</v>
       </c>
       <c r="W26" t="n">
-        <v>1122.213218537195</v>
+        <v>1684.815504523208</v>
       </c>
       <c r="X26" t="n">
-        <v>721.5698207061478</v>
+        <v>1284.17210669216</v>
       </c>
       <c r="Y26" t="n">
-        <v>721.5698207061478</v>
+        <v>883.2354336402506</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>100.158367003969</v>
       </c>
       <c r="H27" t="n">
-        <v>40.5566912611768</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="I27" t="n">
-        <v>40.5566912611768</v>
+        <v>59.16348871711071</v>
       </c>
       <c r="J27" t="n">
-        <v>96.56231902906744</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K27" t="n">
-        <v>223.9375613431321</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L27" t="n">
-        <v>413.9699228834544</v>
+        <v>676.2451243140215</v>
       </c>
       <c r="M27" t="n">
-        <v>915.8589772405173</v>
+        <v>905.843458593912</v>
       </c>
       <c r="N27" t="n">
-        <v>1175.638859280835</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O27" t="n">
-        <v>1677.527913637898</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P27" t="n">
-        <v>1839.795360452096</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q27" t="n">
-        <v>1928.049576833458</v>
+        <v>1928.049576833459</v>
       </c>
       <c r="R27" t="n">
         <v>2027.83456305884</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>532.0555235082309</v>
+        <v>206.8395791417962</v>
       </c>
       <c r="C28" t="n">
-        <v>360.9621510699473</v>
+        <v>206.8395791417962</v>
       </c>
       <c r="D28" t="n">
-        <v>201.4675063928573</v>
+        <v>206.8395791417962</v>
       </c>
       <c r="E28" t="n">
-        <v>40.5566912611768</v>
+        <v>206.8395791417962</v>
       </c>
       <c r="F28" t="n">
-        <v>40.5566912611768</v>
+        <v>206.8395791417962</v>
       </c>
       <c r="G28" t="n">
-        <v>40.5566912611768</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="H28" t="n">
-        <v>40.5566912611768</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="I28" t="n">
-        <v>40.5566912611768</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="J28" t="n">
-        <v>121.6805072021685</v>
+        <v>56.67914357083211</v>
       </c>
       <c r="K28" t="n">
-        <v>386.4022301060039</v>
+        <v>115.1206728889534</v>
       </c>
       <c r="L28" t="n">
-        <v>620.1715113232963</v>
+        <v>431.370712110393</v>
       </c>
       <c r="M28" t="n">
-        <v>1058.078046724375</v>
+        <v>869.2772475114718</v>
       </c>
       <c r="N28" t="n">
-        <v>1484.024922161805</v>
+        <v>1295.224122948901</v>
       </c>
       <c r="O28" t="n">
-        <v>1562.541583420358</v>
+        <v>1688.815543626195</v>
       </c>
       <c r="P28" t="n">
-        <v>1882.903536463082</v>
+        <v>2009.17749666892</v>
       </c>
       <c r="Q28" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="R28" t="n">
-        <v>2018.535574757825</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="S28" t="n">
-        <v>2018.535574757825</v>
+        <v>1928.734492131929</v>
       </c>
       <c r="T28" t="n">
-        <v>2018.535574757825</v>
+        <v>1693.31963039139</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.790200205431</v>
+        <v>1410.574255838996</v>
       </c>
       <c r="V28" t="n">
-        <v>1461.904455144953</v>
+        <v>1136.688510778518</v>
       </c>
       <c r="W28" t="n">
-        <v>1182.834790653827</v>
+        <v>857.6188462873924</v>
       </c>
       <c r="X28" t="n">
-        <v>944.4909285135105</v>
+        <v>619.2749841470759</v>
       </c>
       <c r="Y28" t="n">
-        <v>719.7552299022752</v>
+        <v>394.5392855358406</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>332.5745704366497</v>
+        <v>219.5082803240688</v>
       </c>
       <c r="C29" t="n">
-        <v>332.5745704366497</v>
+        <v>219.5082803240688</v>
       </c>
       <c r="D29" t="n">
-        <v>332.5745704366497</v>
+        <v>219.5082803240688</v>
       </c>
       <c r="E29" t="n">
-        <v>332.5745704366497</v>
+        <v>219.5082803240688</v>
       </c>
       <c r="F29" t="n">
-        <v>332.5745704366497</v>
+        <v>219.5082803240688</v>
       </c>
       <c r="G29" t="n">
-        <v>332.5745704366497</v>
+        <v>219.5082803240688</v>
       </c>
       <c r="H29" t="n">
-        <v>43.75524500103158</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="I29" t="n">
         <v>40.55669126117681</v>
@@ -6496,19 +6496,19 @@
         <v>1815.069831736347</v>
       </c>
       <c r="U29" t="n">
-        <v>1558.181890588307</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="V29" t="n">
-        <v>1208.344335924788</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="W29" t="n">
-        <v>824.5840350599567</v>
+        <v>1431.309530871516</v>
       </c>
       <c r="X29" t="n">
-        <v>733.5112434885596</v>
+        <v>1030.666133040468</v>
       </c>
       <c r="Y29" t="n">
-        <v>332.5745704366497</v>
+        <v>629.7294599885582</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>686.3393707197115</v>
+        <v>686.3393707197114</v>
       </c>
       <c r="C30" t="n">
-        <v>552.3442994686573</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D30" t="n">
         <v>435.4471416880497</v>
@@ -6533,7 +6533,7 @@
         <v>205.9944458628822</v>
       </c>
       <c r="G30" t="n">
-        <v>100.1583670039693</v>
+        <v>100.1583670039692</v>
       </c>
       <c r="H30" t="n">
         <v>40.55669126117681</v>
@@ -6554,16 +6554,16 @@
         <v>905.843458593912</v>
       </c>
       <c r="N30" t="n">
-        <v>1147.591455624038</v>
+        <v>1147.354078781903</v>
       </c>
       <c r="O30" t="n">
-        <v>1359.527473111106</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P30" t="n">
-        <v>1521.794919925304</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q30" t="n">
-        <v>2016.01929331044</v>
+        <v>1928.049576833459</v>
       </c>
       <c r="R30" t="n">
         <v>2027.83456305884</v>
@@ -6584,10 +6584,10 @@
         <v>1162.370344852575</v>
       </c>
       <c r="X30" t="n">
-        <v>986.0443629914681</v>
+        <v>986.044362991468</v>
       </c>
       <c r="Y30" t="n">
-        <v>826.6424033552981</v>
+        <v>826.642403355298</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.225595743149</v>
+        <v>548.8442289774048</v>
       </c>
       <c r="C31" t="n">
-        <v>920.1322233048652</v>
+        <v>548.8442289774048</v>
       </c>
       <c r="D31" t="n">
-        <v>760.6375786277752</v>
+        <v>532.3815201628854</v>
       </c>
       <c r="E31" t="n">
-        <v>599.7267634960947</v>
+        <v>371.4707050312049</v>
       </c>
       <c r="F31" t="n">
-        <v>435.095637606686</v>
+        <v>206.8395791417962</v>
       </c>
       <c r="G31" t="n">
-        <v>268.8127497260665</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="H31" t="n">
-        <v>127.8072774730935</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="I31" t="n">
         <v>40.55669126117681</v>
@@ -6624,19 +6624,19 @@
         <v>56.67914357083211</v>
       </c>
       <c r="K31" t="n">
-        <v>115.1206728889534</v>
+        <v>321.4008664746675</v>
       </c>
       <c r="L31" t="n">
-        <v>515.9966690062475</v>
+        <v>722.2768625919616</v>
       </c>
       <c r="M31" t="n">
-        <v>953.9032044073265</v>
+        <v>869.2772475114718</v>
       </c>
       <c r="N31" t="n">
-        <v>1379.850079844756</v>
+        <v>1295.224122948901</v>
       </c>
       <c r="O31" t="n">
-        <v>1773.44150052205</v>
+        <v>1688.815543626195</v>
       </c>
       <c r="P31" t="n">
         <v>2009.17749666892</v>
@@ -6645,28 +6645,28 @@
         <v>2027.83456305884</v>
       </c>
       <c r="R31" t="n">
-        <v>1986.06430652259</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="S31" t="n">
-        <v>1816.533480426008</v>
+        <v>1858.303736962258</v>
       </c>
       <c r="T31" t="n">
-        <v>1742.004862888745</v>
+        <v>1622.888875221719</v>
       </c>
       <c r="U31" t="n">
-        <v>1742.004862888745</v>
+        <v>1340.143500669325</v>
       </c>
       <c r="V31" t="n">
-        <v>1742.004862888745</v>
+        <v>1066.257755608847</v>
       </c>
       <c r="W31" t="n">
-        <v>1742.004862888745</v>
+        <v>787.1880911177213</v>
       </c>
       <c r="X31" t="n">
-        <v>1503.661000748428</v>
+        <v>548.8442289774048</v>
       </c>
       <c r="Y31" t="n">
-        <v>1278.925302137193</v>
+        <v>548.8442289774048</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1294.23670753049</v>
+        <v>1282.49872049213</v>
       </c>
       <c r="C32" t="n">
-        <v>1294.23670753049</v>
+        <v>1282.49872049213</v>
       </c>
       <c r="D32" t="n">
-        <v>1294.23670753049</v>
+        <v>1282.49872049213</v>
       </c>
       <c r="E32" t="n">
-        <v>879.8964920473863</v>
+        <v>868.1585050090266</v>
       </c>
       <c r="F32" t="n">
-        <v>458.8660800010739</v>
+        <v>447.1280929627141</v>
       </c>
       <c r="G32" t="n">
-        <v>52.2946782995366</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="H32" t="n">
         <v>40.55669126117681</v>
@@ -6700,28 +6700,28 @@
         <v>40.55669126117681</v>
       </c>
       <c r="J32" t="n">
-        <v>147.3860862243982</v>
+        <v>383.355423239411</v>
       </c>
       <c r="K32" t="n">
-        <v>328.0447565000673</v>
+        <v>564.01409351508</v>
       </c>
       <c r="L32" t="n">
-        <v>567.1130254618869</v>
+        <v>803.0823624768997</v>
       </c>
       <c r="M32" t="n">
-        <v>845.9486603707057</v>
+        <v>1081.917997385719</v>
       </c>
       <c r="N32" t="n">
-        <v>1131.164739759458</v>
+        <v>1367.134076774471</v>
       </c>
       <c r="O32" t="n">
-        <v>1395.085414945227</v>
+        <v>1631.054751960239</v>
       </c>
       <c r="P32" t="n">
-        <v>1606.362699847782</v>
+        <v>1842.332036862795</v>
       </c>
       <c r="Q32" t="n">
-        <v>1854.486849518398</v>
+        <v>1981.482516594539</v>
       </c>
       <c r="R32" t="n">
         <v>2027.83456305884</v>
@@ -6730,22 +6730,22 @@
         <v>2027.83456305884</v>
       </c>
       <c r="T32" t="n">
-        <v>2027.83456305884</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="U32" t="n">
-        <v>2027.83456305884</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="V32" t="n">
-        <v>1677.997008395321</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="W32" t="n">
-        <v>1294.23670753049</v>
+        <v>1431.309530871516</v>
       </c>
       <c r="X32" t="n">
-        <v>1294.23670753049</v>
+        <v>1282.49872049213</v>
       </c>
       <c r="Y32" t="n">
-        <v>1294.23670753049</v>
+        <v>1282.49872049213</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>686.3393707197115</v>
+        <v>686.3393707197113</v>
       </c>
       <c r="C33" t="n">
-        <v>552.3442994686573</v>
+        <v>552.3442994686569</v>
       </c>
       <c r="D33" t="n">
-        <v>435.4471416880497</v>
+        <v>435.4471416880493</v>
       </c>
       <c r="E33" t="n">
-        <v>314.9543256803777</v>
+        <v>314.9543256803773</v>
       </c>
       <c r="F33" t="n">
-        <v>205.9944458628822</v>
+        <v>205.9944458628819</v>
       </c>
       <c r="G33" t="n">
-        <v>100.1583670039692</v>
+        <v>100.158367003969</v>
       </c>
       <c r="H33" t="n">
         <v>40.55669126117681</v>
@@ -6779,52 +6779,52 @@
         <v>40.55669126117681</v>
       </c>
       <c r="J33" t="n">
-        <v>96.56231902906745</v>
+        <v>340.2307230037007</v>
       </c>
       <c r="K33" t="n">
-        <v>223.9375613431321</v>
+        <v>467.6059653177654</v>
       </c>
       <c r="L33" t="n">
-        <v>532.1211871208628</v>
+        <v>657.6383268580876</v>
       </c>
       <c r="M33" t="n">
-        <v>761.7195214007534</v>
+        <v>887.2366611379781</v>
       </c>
       <c r="N33" t="n">
-        <v>1263.608575757816</v>
+        <v>1128.747281325969</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.497630114879</v>
+        <v>1340.683298813036</v>
       </c>
       <c r="P33" t="n">
-        <v>1927.765076929077</v>
+        <v>1502.950745627234</v>
       </c>
       <c r="Q33" t="n">
-        <v>2016.01929331044</v>
+        <v>1997.175119012371</v>
       </c>
       <c r="R33" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="S33" t="n">
-        <v>1941.280225349815</v>
+        <v>1941.280225349814</v>
       </c>
       <c r="T33" t="n">
-        <v>1786.589927706919</v>
+        <v>1786.589927706918</v>
       </c>
       <c r="U33" t="n">
-        <v>1589.315040123213</v>
+        <v>1589.315040123212</v>
       </c>
       <c r="V33" t="n">
-        <v>1375.603513116247</v>
+        <v>1375.603513116246</v>
       </c>
       <c r="W33" t="n">
         <v>1162.370344852575</v>
       </c>
       <c r="X33" t="n">
-        <v>986.0443629914681</v>
+        <v>986.0443629914679</v>
       </c>
       <c r="Y33" t="n">
-        <v>826.6424033552981</v>
+        <v>826.6424033552979</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>371.1447083765503</v>
+        <v>787.1880911177213</v>
       </c>
       <c r="C34" t="n">
-        <v>200.0513359382668</v>
+        <v>616.0947186794378</v>
       </c>
       <c r="D34" t="n">
-        <v>40.55669126117681</v>
+        <v>594.3546907471557</v>
       </c>
       <c r="E34" t="n">
-        <v>40.55669126117681</v>
+        <v>433.4438756154752</v>
       </c>
       <c r="F34" t="n">
-        <v>40.55669126117681</v>
+        <v>268.8127497260665</v>
       </c>
       <c r="G34" t="n">
-        <v>40.55669126117681</v>
+        <v>268.8127497260665</v>
       </c>
       <c r="H34" t="n">
-        <v>40.55669126117681</v>
+        <v>127.8072774730935</v>
       </c>
       <c r="I34" t="n">
         <v>40.55669126117681</v>
@@ -6861,49 +6861,49 @@
         <v>121.6805072021685</v>
       </c>
       <c r="K34" t="n">
-        <v>180.1220365202897</v>
+        <v>386.4022301060039</v>
       </c>
       <c r="L34" t="n">
-        <v>580.9980326375839</v>
+        <v>787.2782262232981</v>
       </c>
       <c r="M34" t="n">
-        <v>1018.904568038663</v>
+        <v>880.2184121100915</v>
       </c>
       <c r="N34" t="n">
-        <v>1444.851443476092</v>
+        <v>1306.165287547521</v>
       </c>
       <c r="O34" t="n">
-        <v>1838.442864153386</v>
+        <v>1562.541583420358</v>
       </c>
       <c r="P34" t="n">
-        <v>2009.17749666892</v>
+        <v>1882.903536463083</v>
       </c>
       <c r="Q34" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="R34" t="n">
-        <v>1986.06430652259</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="S34" t="n">
-        <v>1816.533480426008</v>
+        <v>1858.303736962258</v>
       </c>
       <c r="T34" t="n">
-        <v>1581.118618685469</v>
+        <v>1622.888875221719</v>
       </c>
       <c r="U34" t="n">
-        <v>1350.143686462515</v>
+        <v>1340.143500669325</v>
       </c>
       <c r="V34" t="n">
-        <v>1076.257941402037</v>
+        <v>1066.257755608847</v>
       </c>
       <c r="W34" t="n">
-        <v>797.1882769109113</v>
+        <v>787.1880911177213</v>
       </c>
       <c r="X34" t="n">
-        <v>558.8444147705947</v>
+        <v>787.1880911177213</v>
       </c>
       <c r="Y34" t="n">
-        <v>558.8444147705947</v>
+        <v>787.1880911177213</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>70.56360327123701</v>
+        <v>583.798997289535</v>
       </c>
       <c r="C35" t="n">
-        <v>70.56360327123701</v>
+        <v>583.798997289535</v>
       </c>
       <c r="D35" t="n">
-        <v>70.56360327123701</v>
+        <v>583.798997289535</v>
       </c>
       <c r="E35" t="n">
-        <v>70.56360327123701</v>
+        <v>583.798997289535</v>
       </c>
       <c r="F35" t="n">
-        <v>70.56360327123701</v>
+        <v>583.798997289535</v>
       </c>
       <c r="G35" t="n">
-        <v>35.74099050576838</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="H35" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I35" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J35" t="n">
         <v>142.5703854689898</v>
@@ -6964,25 +6964,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S35" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T35" t="n">
-        <v>1488.153676578333</v>
+        <v>1574.284793965925</v>
       </c>
       <c r="U35" t="n">
-        <v>1231.265735430293</v>
+        <v>1317.396852817886</v>
       </c>
       <c r="V35" t="n">
-        <v>881.4281807667739</v>
+        <v>967.5592981543664</v>
       </c>
       <c r="W35" t="n">
-        <v>881.4281807667739</v>
+        <v>583.798997289535</v>
       </c>
       <c r="X35" t="n">
-        <v>480.7847829357265</v>
+        <v>583.798997289535</v>
       </c>
       <c r="Y35" t="n">
-        <v>480.7847829357265</v>
+        <v>583.798997289535</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>681.5236699643028</v>
+        <v>532.1086706583156</v>
       </c>
       <c r="C36" t="n">
-        <v>547.5285987132485</v>
+        <v>398.1135994072613</v>
       </c>
       <c r="D36" t="n">
-        <v>430.6314409326409</v>
+        <v>281.2164416266538</v>
       </c>
       <c r="E36" t="n">
-        <v>310.1386249249689</v>
+        <v>160.7236256189817</v>
       </c>
       <c r="F36" t="n">
-        <v>201.1787451074734</v>
+        <v>51.76374580148632</v>
       </c>
       <c r="G36" t="n">
-        <v>95.34266624856059</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H36" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I36" t="n">
-        <v>35.74099050576838</v>
+        <v>54.34778796170227</v>
       </c>
       <c r="J36" t="n">
-        <v>335.4150222482922</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K36" t="n">
-        <v>462.7902645623569</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L36" t="n">
-        <v>652.8226261026791</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M36" t="n">
-        <v>882.4209603825697</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N36" t="n">
-        <v>1123.931580570561</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O36" t="n">
-        <v>1335.867598057628</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P36" t="n">
-        <v>1498.135044871826</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q36" t="n">
-        <v>1775.234255540019</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R36" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S36" t="n">
-        <v>1700.495187579393</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T36" t="n">
-        <v>1700.495187579393</v>
+        <v>1632.359227645523</v>
       </c>
       <c r="U36" t="n">
-        <v>1503.220299995687</v>
+        <v>1435.084340061817</v>
       </c>
       <c r="V36" t="n">
-        <v>1370.787812360838</v>
+        <v>1221.372813054851</v>
       </c>
       <c r="W36" t="n">
-        <v>1157.554644097167</v>
+        <v>1008.139644791179</v>
       </c>
       <c r="X36" t="n">
-        <v>981.2286622360594</v>
+        <v>831.8136629300723</v>
       </c>
       <c r="Y36" t="n">
-        <v>821.8267025998895</v>
+        <v>672.4117032939023</v>
       </c>
     </row>
     <row r="37">
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>715.9338794438822</v>
+        <v>698.6591918457605</v>
       </c>
       <c r="C37" t="n">
-        <v>544.8405070055987</v>
+        <v>527.565819407477</v>
       </c>
       <c r="D37" t="n">
-        <v>385.3458623285088</v>
+        <v>527.565819407477</v>
       </c>
       <c r="E37" t="n">
-        <v>341.3775886481502</v>
+        <v>366.6550042757965</v>
       </c>
       <c r="F37" t="n">
-        <v>176.7464627587414</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="G37" t="n">
-        <v>176.7464627587414</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H37" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I37" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J37" t="n">
-        <v>51.86344281542368</v>
+        <v>51.86344281542367</v>
       </c>
       <c r="K37" t="n">
         <v>110.3049721335449</v>
       </c>
       <c r="L37" t="n">
-        <v>325.2091976072524</v>
+        <v>505.6604337587118</v>
       </c>
       <c r="M37" t="n">
-        <v>763.1157330083313</v>
+        <v>943.5669691597907</v>
       </c>
       <c r="N37" t="n">
-        <v>1189.062608445761</v>
+        <v>1369.51384459722</v>
       </c>
       <c r="O37" t="n">
-        <v>1582.654029123055</v>
+        <v>1448.030505855774</v>
       </c>
       <c r="P37" t="n">
-        <v>1642.118498692661</v>
+        <v>1768.392458898498</v>
       </c>
       <c r="Q37" t="n">
         <v>1787.049525288419</v>
@@ -7122,25 +7122,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S37" t="n">
-        <v>1787.049525288419</v>
+        <v>1617.518699191836</v>
       </c>
       <c r="T37" t="n">
-        <v>1551.63466354788</v>
+        <v>1382.103837451297</v>
       </c>
       <c r="U37" t="n">
-        <v>1268.889288995486</v>
+        <v>1382.103837451297</v>
       </c>
       <c r="V37" t="n">
-        <v>995.0035439350079</v>
+        <v>1108.218092390819</v>
       </c>
       <c r="W37" t="n">
-        <v>715.9338794438822</v>
+        <v>923.3948904569958</v>
       </c>
       <c r="X37" t="n">
-        <v>715.9338794438822</v>
+        <v>923.3948904569958</v>
       </c>
       <c r="Y37" t="n">
-        <v>715.9338794438822</v>
+        <v>698.6591918457605</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.74099050576838</v>
+        <v>1687.807610423451</v>
       </c>
       <c r="C38" t="n">
-        <v>35.74099050576838</v>
+        <v>1277.683019736721</v>
       </c>
       <c r="D38" t="n">
-        <v>35.74099050576838</v>
+        <v>1277.683019736721</v>
       </c>
       <c r="E38" t="n">
-        <v>35.74099050576838</v>
+        <v>863.3428042536182</v>
       </c>
       <c r="F38" t="n">
-        <v>35.74099050576838</v>
+        <v>442.3123922073057</v>
       </c>
       <c r="G38" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H38" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I38" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J38" t="n">
-        <v>142.5703854689899</v>
+        <v>142.5703854689898</v>
       </c>
       <c r="K38" t="n">
-        <v>323.2290557446589</v>
+        <v>323.2290557446585</v>
       </c>
       <c r="L38" t="n">
-        <v>562.2973247064785</v>
+        <v>562.2973247064781</v>
       </c>
       <c r="M38" t="n">
-        <v>841.1329596152974</v>
+        <v>841.132959615297</v>
       </c>
       <c r="N38" t="n">
         <v>1126.349039004049</v>
@@ -7192,7 +7192,7 @@
         <v>1390.269714189818</v>
       </c>
       <c r="P38" t="n">
-        <v>1601.546999092374</v>
+        <v>1601.546999092373</v>
       </c>
       <c r="Q38" t="n">
         <v>1740.697478824117</v>
@@ -7201,25 +7201,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S38" t="n">
-        <v>1700.918407900826</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T38" t="n">
-        <v>1488.153676578333</v>
+        <v>1687.807610423451</v>
       </c>
       <c r="U38" t="n">
-        <v>1247.542241053215</v>
+        <v>1687.807610423451</v>
       </c>
       <c r="V38" t="n">
-        <v>1247.542241053215</v>
+        <v>1687.807610423451</v>
       </c>
       <c r="W38" t="n">
-        <v>1247.542241053215</v>
+        <v>1687.807610423451</v>
       </c>
       <c r="X38" t="n">
-        <v>846.8988432221677</v>
+        <v>1687.807610423451</v>
       </c>
       <c r="Y38" t="n">
-        <v>445.9621701702578</v>
+        <v>1687.807610423451</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>445.5543329492901</v>
+        <v>516.0859153625977</v>
       </c>
       <c r="C39" t="n">
-        <v>311.5592616982358</v>
+        <v>382.0908441115434</v>
       </c>
       <c r="D39" t="n">
-        <v>194.6621039176283</v>
+        <v>265.1936863309358</v>
       </c>
       <c r="E39" t="n">
-        <v>74.16928790995624</v>
+        <v>144.7008703232638</v>
       </c>
       <c r="F39" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="G39" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H39" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I39" t="n">
-        <v>54.34778796170228</v>
+        <v>54.34778796170227</v>
       </c>
       <c r="J39" t="n">
         <v>354.0218197042262</v>
@@ -7271,7 +7271,7 @@
         <v>1354.474395513562</v>
       </c>
       <c r="P39" t="n">
-        <v>1599.010322681675</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q39" t="n">
         <v>1687.264539063037</v>
@@ -7280,25 +7280,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S39" t="n">
-        <v>1700.495187579393</v>
+        <v>1771.026769992701</v>
       </c>
       <c r="T39" t="n">
-        <v>1545.804889936497</v>
+        <v>1616.336472349805</v>
       </c>
       <c r="U39" t="n">
-        <v>1348.530002352791</v>
+        <v>1419.061584766099</v>
       </c>
       <c r="V39" t="n">
-        <v>1134.818475345825</v>
+        <v>1205.350057759133</v>
       </c>
       <c r="W39" t="n">
-        <v>921.5853070821539</v>
+        <v>992.1168894954615</v>
       </c>
       <c r="X39" t="n">
-        <v>745.2593252210468</v>
+        <v>815.7909076343543</v>
       </c>
       <c r="Y39" t="n">
-        <v>585.8573655848768</v>
+        <v>656.3889479981843</v>
       </c>
     </row>
     <row r="40">
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>347.8999868506797</v>
+        <v>488.2691804328693</v>
       </c>
       <c r="C40" t="n">
-        <v>176.8066144123962</v>
+        <v>317.1758079945859</v>
       </c>
       <c r="D40" t="n">
-        <v>176.8066144123962</v>
+        <v>157.6811633174959</v>
       </c>
       <c r="E40" t="n">
-        <v>176.8066144123962</v>
+        <v>157.6811633174959</v>
       </c>
       <c r="F40" t="n">
-        <v>176.8066144123962</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="G40" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H40" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I40" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J40" t="n">
-        <v>116.8648064467601</v>
+        <v>51.86344281542367</v>
       </c>
       <c r="K40" t="n">
-        <v>381.5865293505955</v>
+        <v>110.3049721335449</v>
       </c>
       <c r="L40" t="n">
-        <v>782.4625254678897</v>
+        <v>511.1809682508391</v>
       </c>
       <c r="M40" t="n">
-        <v>875.4027113546831</v>
+        <v>949.087503651918</v>
       </c>
       <c r="N40" t="n">
-        <v>1301.349586792113</v>
+        <v>1375.034379089348</v>
       </c>
       <c r="O40" t="n">
-        <v>1694.941007469406</v>
+        <v>1708.927989328892</v>
       </c>
       <c r="P40" t="n">
         <v>1768.392458898498</v>
@@ -7362,22 +7362,22 @@
         <v>1787.049525288419</v>
       </c>
       <c r="T40" t="n">
-        <v>1551.63466354788</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="U40" t="n">
-        <v>1551.63466354788</v>
+        <v>1504.304150736025</v>
       </c>
       <c r="V40" t="n">
-        <v>1277.748918487402</v>
+        <v>1230.418405675547</v>
       </c>
       <c r="W40" t="n">
-        <v>998.679253996276</v>
+        <v>951.3487411844212</v>
       </c>
       <c r="X40" t="n">
-        <v>760.3353918559594</v>
+        <v>713.0048790441047</v>
       </c>
       <c r="Y40" t="n">
-        <v>535.5996932447241</v>
+        <v>488.2691804328693</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1787.049525288419</v>
+        <v>1159.930943470802</v>
       </c>
       <c r="C41" t="n">
-        <v>1376.924934601689</v>
+        <v>1159.930943470802</v>
       </c>
       <c r="D41" t="n">
-        <v>972.4610046947496</v>
+        <v>1159.930943470802</v>
       </c>
       <c r="E41" t="n">
-        <v>558.1207892116463</v>
+        <v>745.590727987699</v>
       </c>
       <c r="F41" t="n">
-        <v>137.0903771653338</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="G41" t="n">
-        <v>35.74099050576838</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="H41" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I41" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J41" t="n">
         <v>142.5703854689898</v>
@@ -7420,7 +7420,7 @@
         <v>562.2973247064784</v>
       </c>
       <c r="M41" t="n">
-        <v>841.1329596152973</v>
+        <v>841.1329596152972</v>
       </c>
       <c r="N41" t="n">
         <v>1126.349039004049</v>
@@ -7441,22 +7441,22 @@
         <v>1787.049525288419</v>
       </c>
       <c r="T41" t="n">
-        <v>1787.049525288419</v>
+        <v>1574.284793965925</v>
       </c>
       <c r="U41" t="n">
-        <v>1787.049525288419</v>
+        <v>1570.152123135292</v>
       </c>
       <c r="V41" t="n">
-        <v>1787.049525288419</v>
+        <v>1570.152123135292</v>
       </c>
       <c r="W41" t="n">
-        <v>1787.049525288419</v>
+        <v>1570.152123135292</v>
       </c>
       <c r="X41" t="n">
-        <v>1787.049525288419</v>
+        <v>1570.152123135292</v>
       </c>
       <c r="Y41" t="n">
-        <v>1787.049525288419</v>
+        <v>1570.152123135292</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>141.5770693646812</v>
       </c>
       <c r="G42" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H42" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I42" t="n">
-        <v>35.74099050576838</v>
+        <v>54.34778796170227</v>
       </c>
       <c r="J42" t="n">
-        <v>335.4150222482922</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K42" t="n">
-        <v>462.7902645623569</v>
+        <v>563.6655423722052</v>
       </c>
       <c r="L42" t="n">
-        <v>652.8226261026791</v>
+        <v>753.6979039125275</v>
       </c>
       <c r="M42" t="n">
-        <v>882.4209603825697</v>
+        <v>983.2962381924181</v>
       </c>
       <c r="N42" t="n">
-        <v>1123.931580570561</v>
+        <v>1224.806858380409</v>
       </c>
       <c r="O42" t="n">
-        <v>1335.867598057628</v>
+        <v>1436.742875867476</v>
       </c>
       <c r="P42" t="n">
-        <v>1498.135044871826</v>
+        <v>1599.010322681674</v>
       </c>
       <c r="Q42" t="n">
         <v>1687.264539063037</v>
@@ -7517,25 +7517,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.536866990506</v>
+        <v>1700.495187579393</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.84656934761</v>
+        <v>1545.804889936497</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.571681763905</v>
+        <v>1348.530002352791</v>
       </c>
       <c r="V42" t="n">
-        <v>1134.860154756938</v>
+        <v>1134.818475345825</v>
       </c>
       <c r="W42" t="n">
-        <v>921.6269864932672</v>
+        <v>921.5853070821537</v>
       </c>
       <c r="X42" t="n">
-        <v>921.6269864932672</v>
+        <v>745.2593252210465</v>
       </c>
       <c r="Y42" t="n">
-        <v>762.2250268570972</v>
+        <v>745.2593252210465</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.0154753749079</v>
+        <v>590.8045657593768</v>
       </c>
       <c r="C43" t="n">
-        <v>443.3970365264556</v>
+        <v>590.8045657593768</v>
       </c>
       <c r="D43" t="n">
-        <v>283.9023918493656</v>
+        <v>590.8045657593768</v>
       </c>
       <c r="E43" t="n">
-        <v>122.991576717685</v>
+        <v>590.8045657593768</v>
       </c>
       <c r="F43" t="n">
-        <v>122.991576717685</v>
+        <v>426.1734398699681</v>
       </c>
       <c r="G43" t="n">
-        <v>122.991576717685</v>
+        <v>259.8905519893486</v>
       </c>
       <c r="H43" t="n">
-        <v>122.991576717685</v>
+        <v>118.8850797363756</v>
       </c>
       <c r="I43" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J43" t="n">
-        <v>116.8648064467601</v>
+        <v>116.86480644676</v>
       </c>
       <c r="K43" t="n">
-        <v>175.3063357648813</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L43" t="n">
-        <v>451.4831578130897</v>
+        <v>468.4834142328665</v>
       </c>
       <c r="M43" t="n">
-        <v>889.3896932141686</v>
+        <v>817.2930089539536</v>
       </c>
       <c r="N43" t="n">
-        <v>1315.336568651598</v>
+        <v>1243.239884391383</v>
       </c>
       <c r="O43" t="n">
-        <v>1708.927989328892</v>
+        <v>1321.756545649937</v>
       </c>
       <c r="P43" t="n">
-        <v>1768.392458898498</v>
+        <v>1642.118498692661</v>
       </c>
       <c r="Q43" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R43" t="n">
-        <v>1745.279268752169</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S43" t="n">
-        <v>1745.279268752169</v>
+        <v>1617.518699191836</v>
       </c>
       <c r="T43" t="n">
-        <v>1509.86440701163</v>
+        <v>1382.103837451297</v>
       </c>
       <c r="U43" t="n">
-        <v>1509.86440701163</v>
+        <v>1382.103837451297</v>
       </c>
       <c r="V43" t="n">
-        <v>1509.86440701163</v>
+        <v>1108.218092390819</v>
       </c>
       <c r="W43" t="n">
-        <v>1230.794742520504</v>
+        <v>829.1484278996934</v>
       </c>
       <c r="X43" t="n">
-        <v>992.4508803801875</v>
+        <v>590.8045657593768</v>
       </c>
       <c r="Y43" t="n">
-        <v>767.7151817689522</v>
+        <v>590.8045657593768</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>489.1171573533792</v>
+        <v>1280.881573476576</v>
       </c>
       <c r="C44" t="n">
-        <v>78.99256666664928</v>
+        <v>1280.881573476576</v>
       </c>
       <c r="D44" t="n">
-        <v>78.99256666664928</v>
+        <v>1280.881573476576</v>
       </c>
       <c r="E44" t="n">
-        <v>35.74099050576838</v>
+        <v>866.541357993473</v>
       </c>
       <c r="F44" t="n">
-        <v>35.74099050576838</v>
+        <v>445.5109459471605</v>
       </c>
       <c r="G44" t="n">
-        <v>35.74099050576838</v>
+        <v>38.93954424562314</v>
       </c>
       <c r="H44" t="n">
-        <v>35.74099050576838</v>
+        <v>38.93954424562314</v>
       </c>
       <c r="I44" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J44" t="n">
         <v>142.5703854689898</v>
@@ -7654,7 +7654,7 @@
         <v>323.2290557446588</v>
       </c>
       <c r="L44" t="n">
-        <v>562.2973247064785</v>
+        <v>562.2973247064784</v>
       </c>
       <c r="M44" t="n">
         <v>841.1329596152973</v>
@@ -7681,19 +7681,19 @@
         <v>1700.918407900826</v>
       </c>
       <c r="U44" t="n">
-        <v>1700.918407900826</v>
+        <v>1691.102753141066</v>
       </c>
       <c r="V44" t="n">
-        <v>1700.918407900826</v>
+        <v>1691.102753141066</v>
       </c>
       <c r="W44" t="n">
-        <v>1700.918407900826</v>
+        <v>1691.102753141066</v>
       </c>
       <c r="X44" t="n">
-        <v>1300.275010069779</v>
+        <v>1691.102753141066</v>
       </c>
       <c r="Y44" t="n">
-        <v>899.3383370178686</v>
+        <v>1691.102753141066</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.9219942215105</v>
+        <v>585.8573655848766</v>
       </c>
       <c r="C45" t="n">
-        <v>487.9269229704562</v>
+        <v>451.8622943338223</v>
       </c>
       <c r="D45" t="n">
-        <v>371.0297651898487</v>
+        <v>334.9651365532147</v>
       </c>
       <c r="E45" t="n">
-        <v>250.5369491821766</v>
+        <v>214.4723205455427</v>
       </c>
       <c r="F45" t="n">
         <v>141.5770693646812</v>
       </c>
       <c r="G45" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H45" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I45" t="n">
-        <v>35.74099050576838</v>
+        <v>54.34778796170227</v>
       </c>
       <c r="J45" t="n">
-        <v>335.4150222482922</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K45" t="n">
-        <v>462.7902645623569</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L45" t="n">
-        <v>652.8226261026791</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M45" t="n">
-        <v>882.4209603825697</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N45" t="n">
-        <v>1123.931580570561</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O45" t="n">
-        <v>1335.867598057628</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P45" t="n">
-        <v>1498.135044871826</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q45" t="n">
-        <v>1775.234255540019</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R45" t="n">
         <v>1787.049525288419</v>
@@ -7766,13 +7766,13 @@
         <v>1134.818475345825</v>
       </c>
       <c r="W45" t="n">
-        <v>1097.952968354374</v>
+        <v>921.5853070821537</v>
       </c>
       <c r="X45" t="n">
-        <v>921.6269864932672</v>
+        <v>745.2593252210465</v>
       </c>
       <c r="Y45" t="n">
-        <v>762.2250268570972</v>
+        <v>585.8573655848766</v>
       </c>
     </row>
     <row r="46">
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>356.1464503145389</v>
+        <v>999.1593087758235</v>
       </c>
       <c r="C46" t="n">
-        <v>356.1464503145389</v>
+        <v>828.0659363375401</v>
       </c>
       <c r="D46" t="n">
-        <v>196.6518056374489</v>
+        <v>668.57129166045</v>
       </c>
       <c r="E46" t="n">
-        <v>35.74099050576838</v>
+        <v>507.6604765287695</v>
       </c>
       <c r="F46" t="n">
-        <v>35.74099050576838</v>
+        <v>343.0293506393608</v>
       </c>
       <c r="G46" t="n">
-        <v>35.74099050576838</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="H46" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I46" t="n">
-        <v>35.74099050576838</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="J46" t="n">
-        <v>51.86344281542368</v>
+        <v>116.86480644676</v>
       </c>
       <c r="K46" t="n">
-        <v>316.5851657192591</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L46" t="n">
-        <v>717.4611618365533</v>
+        <v>724.3528230671602</v>
       </c>
       <c r="M46" t="n">
-        <v>810.4013477233467</v>
+        <v>817.2930089539536</v>
       </c>
       <c r="N46" t="n">
-        <v>928.165124972643</v>
+        <v>1243.239884391383</v>
       </c>
       <c r="O46" t="n">
         <v>1321.756545649937</v>
@@ -7833,25 +7833,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S46" t="n">
-        <v>1787.049525288419</v>
+        <v>1617.518699191836</v>
       </c>
       <c r="T46" t="n">
-        <v>1551.63466354788</v>
+        <v>1382.103837451297</v>
       </c>
       <c r="U46" t="n">
-        <v>1268.889288995486</v>
+        <v>1382.103837451297</v>
       </c>
       <c r="V46" t="n">
-        <v>995.0035439350079</v>
+        <v>1382.103837451297</v>
       </c>
       <c r="W46" t="n">
-        <v>715.9338794438822</v>
+        <v>1103.034172960171</v>
       </c>
       <c r="X46" t="n">
-        <v>477.5900173035656</v>
+        <v>1103.034172960171</v>
       </c>
       <c r="Y46" t="n">
-        <v>477.5900173035656</v>
+        <v>1103.034172960171</v>
       </c>
     </row>
   </sheetData>
@@ -8768,13 +8768,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>318.1005203988071</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>99.98695516233397</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>171.9577745766629</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>256.8497987851254</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O13" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>68.85278566172516</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,16 +9005,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>114.3843041409647</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>171.9577745766626</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>214.844871948478</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
         <v>208.3638319047618</v>
@@ -9093,13 +9093,13 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>342.3494572507001</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>276.6915141887438</v>
       </c>
       <c r="P16" t="n">
         <v>263.5328115890082</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>204.1966244844921</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>232.6855959816328</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>83.09947510496454</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>256.8497987851254</v>
+        <v>245.3912735026202</v>
       </c>
       <c r="M19" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>204.1966244844921</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>232.6855959816328</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>83.09947510496454</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9573,13 +9573,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O22" t="n">
-        <v>6.961273970310685</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>79.78620756648641</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>110.0744140796686</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>225.3064842911557</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>13.04638138057457</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>252.5752813402222</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>315.0067604209502</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>321.4523407766949</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9813,10 +9813,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>178.0520470477408</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>112.394103985785</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>238.3528656717301</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>110.0744140796685</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,19 +9962,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>275.0411313910832</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>18.45379985083491</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>292.881855424238</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>321.4523407766949</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>148.3559558939609</v>
+        <v>231.669852867847</v>
       </c>
       <c r="M28" t="n">
         <v>348.4508580952379</v>
@@ -10047,13 +10047,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>110.0744140796687</v>
+        <v>110.0744140796686</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0.2397745880155924</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>321.4523407766949</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,13 +10272,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L31" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>348.4508580952379</v>
+        <v>54.6062616492089</v>
       </c>
       <c r="N31" t="n">
         <v>335.3881832803894</v>
@@ -10287,7 +10287,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>178.052047047741</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>238.3528656717301</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>110.0744140796685</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>0.9707135290540378</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>119.3447113509176</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>263.008519362699</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>292.881855424238</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>19.0345194929989</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L34" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O34" t="n">
-        <v>318.2573327462026</v>
+        <v>179.6561965800847</v>
       </c>
       <c r="P34" t="n">
-        <v>112.3941039857849</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
         <v>246.129700984478</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>190.7525194816467</v>
+        <v>83.09947510496428</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>129.300344031754</v>
+        <v>311.574319942319</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
@@ -10758,13 +10758,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>83.09947510496445</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>83.09947510496428</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N40" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
-        <v>318.2573327462026</v>
+        <v>257.9565141222128</v>
       </c>
       <c r="P40" t="n">
-        <v>14.12826450453079</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>83.099475104964</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>101.8942200099483</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11220,25 +11220,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
-        <v>191.191855723169</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>348.4508580952379</v>
+        <v>258.4539483174684</v>
       </c>
       <c r="N43" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
         <v>246.129700984478</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>190.7525194816467</v>
+        <v>83.09947510496428</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,22 +11454,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>317.1506174091142</v>
+        <v>258.4539483174684</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>24.09212450449724</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>263.5328115890082</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>187.7772595529256</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>85.26980621371686</v>
+        <v>62.20927782453342</v>
       </c>
       <c r="T11" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.319061736559</v>
@@ -23326,7 +23326,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23339,22 +23339,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>117.881457442061</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>20.96164455521787</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>156.9266018871923</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9179208068699</v>
+        <v>54.46902822923764</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -23481,7 +23481,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>402.5056876845219</v>
+        <v>307.5722913691783</v>
       </c>
       <c r="H14" t="n">
-        <v>243.1120717819894</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I14" t="n">
         <v>3.166568202456219</v>
@@ -23554,7 +23554,7 @@
         <v>254.319061736559</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23585,10 +23585,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>69.82626658917404</v>
+        <v>41.94886412095444</v>
       </c>
       <c r="G15" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>59.00565898536429</v>
@@ -23655,7 +23655,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>163.6283156157079</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23670,7 +23670,7 @@
         <v>164.6200590018132</v>
       </c>
       <c r="H16" t="n">
-        <v>139.5954175304433</v>
+        <v>92.48874046136353</v>
       </c>
       <c r="I16" t="n">
         <v>86.37808034979749</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23737,10 +23737,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>80.73175011052274</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U17" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -23800,7 +23800,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>314.4859284354093</v>
       </c>
     </row>
     <row r="18">
@@ -23819,7 +23819,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>69.82626658917404</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>69.82626658917439</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23904,10 +23904,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>39.1355674387507</v>
       </c>
       <c r="H19" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>86.37808034979749</v>
@@ -23940,7 +23940,7 @@
         <v>41.35255397088748</v>
       </c>
       <c r="S19" t="n">
-        <v>131.8509187357193</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>185.2441504954074</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.6370840092685</v>
+        <v>197.7530175946496</v>
       </c>
       <c r="U20" t="n">
         <v>254.319061736559</v>
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,16 +24098,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T21" t="n">
-        <v>153.1433946664671</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>80.46624897839516</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>88.91519032756273</v>
       </c>
     </row>
     <row r="22">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24141,13 +24141,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>162.3510921587382</v>
+        <v>71.82229901798763</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -24223,10 +24223,10 @@
         <v>402.5056876845219</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>254.319061736559</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>18.09331993902617</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>348.3927666001252</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>38.48095440745259</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>139.5954175304433</v>
@@ -24414,13 +24414,13 @@
         <v>41.35255397088748</v>
       </c>
       <c r="S25" t="n">
-        <v>167.8355178356165</v>
+        <v>162.4501697933255</v>
       </c>
       <c r="T25" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -24454,16 +24454,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.5056876845219</v>
+        <v>260.2082096903634</v>
       </c>
       <c r="H26" t="n">
-        <v>31.71481015904616</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>139.5954175304433</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>32.14655555288218</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S28" t="n">
-        <v>167.8355178356165</v>
+        <v>69.72644761797434</v>
       </c>
       <c r="T28" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -24697,10 +24697,10 @@
         <v>402.5056876845219</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>108.7690590089989</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>306.4749001970538</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>141.6016165039449</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>159.2773817612432</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.3105250132857</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I32" t="n">
         <v>3.166568202456219</v>
@@ -24970,19 +24970,19 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T32" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>249.3142615771452</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>136.3770705773597</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.6200590018132</v>
       </c>
       <c r="H34" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>51.25273790614557</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -25168,10 +25168,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>368.0313010467079</v>
+        <v>145.8593931498548</v>
       </c>
       <c r="H35" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>3.166568202456219</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>88.91519032756293</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,16 +25283,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T36" t="n">
-        <v>153.1433946664671</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>80.46624897839561</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>115.7731160368087</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I37" t="n">
         <v>86.37808034979749</v>
@@ -25362,25 +25362,25 @@
         <v>41.35255397088748</v>
       </c>
       <c r="S37" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>93.30399793172933</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>285.9311321812619</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>112.387588292951</v>
       </c>
       <c r="U38" t="n">
-        <v>16.11374056669275</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -25456,10 +25456,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25481,7 +25481,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>69.82626658917448</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>104.7777180703237</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>69.82626658917451</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>42.26404354690442</v>
       </c>
       <c r="G40" t="n">
-        <v>24.96509133425165</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H40" t="n">
         <v>139.5954175304433</v>
@@ -25602,10 +25602,10 @@
         <v>167.8355178356165</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>302.1697948915521</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H41" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>3.166568202456219</v>
@@ -25681,10 +25681,10 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T41" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.319061736559</v>
+        <v>250.2277176142319</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>16.79604461969014</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0.04126261700193368</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25772,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="43">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>34.1301842539329</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4.065432011496341</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S43" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>279.9179208068699</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>367.3777529290002</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>285.9311321812619</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>210.6370840092685</v>
       </c>
       <c r="U44" t="n">
-        <v>254.319061736559</v>
+        <v>244.6015635243966</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25930,10 +25930,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25955,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>35.70398235026764</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>174.6039846594983</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>65.59357801096748</v>
+        <v>82.98659378759956</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>86.37808034979749</v>
@@ -26073,22 +26073,22 @@
         <v>41.35255397088748</v>
       </c>
       <c r="S46" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>423280.3390952395</v>
+        <v>423280.3390952394</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>423280.3390952395</v>
+        <v>423280.3390952394</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>423280.3390952396</v>
+        <v>423280.3390952394</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>423280.3390952395</v>
+        <v>423280.3390952394</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473847.8672601315</v>
+        <v>473847.8672601316</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473847.8672601315</v>
+        <v>473847.8672601316</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>423280.3390952394</v>
+        <v>423280.3390952393</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>423280.3390952395</v>
+        <v>423280.3390952394</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>421206.3036207484</v>
+      </c>
+      <c r="C2" t="n">
         <v>421206.3036207485</v>
       </c>
-      <c r="C2" t="n">
-        <v>421206.3036207483</v>
-      </c>
       <c r="D2" t="n">
-        <v>421206.3036207483</v>
+        <v>421206.3036207485</v>
       </c>
       <c r="E2" t="n">
         <v>239311.0683886908</v>
@@ -26331,31 +26331,31 @@
         <v>239311.0683886908</v>
       </c>
       <c r="H2" t="n">
-        <v>239311.0683886907</v>
+        <v>239311.0683886908</v>
       </c>
       <c r="I2" t="n">
-        <v>261480.6235705882</v>
+        <v>261480.6235705883</v>
       </c>
       <c r="J2" t="n">
         <v>261480.6235705883</v>
       </c>
       <c r="K2" t="n">
+        <v>261480.6235705883</v>
+      </c>
+      <c r="L2" t="n">
         <v>261480.6235705882</v>
-      </c>
-      <c r="L2" t="n">
-        <v>261480.6235705883</v>
       </c>
       <c r="M2" t="n">
         <v>239311.0683886908</v>
       </c>
       <c r="N2" t="n">
-        <v>239311.0683886908</v>
+        <v>239311.0683886907</v>
       </c>
       <c r="O2" t="n">
         <v>239311.0683886908</v>
       </c>
       <c r="P2" t="n">
-        <v>239311.0683886908</v>
+        <v>239311.0683886907</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>560128.3559630442</v>
+        <v>560128.3559630441</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16007.44950723702</v>
+        <v>16007.44950723704</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>96333.82383685868</v>
+        <v>96333.82383685872</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,31 +26426,31 @@
         <v>350872.3040056569</v>
       </c>
       <c r="E4" t="n">
-        <v>18679.7878825621</v>
+        <v>18679.78788256209</v>
       </c>
       <c r="F4" t="n">
-        <v>18679.7878825621</v>
+        <v>18679.78788256209</v>
       </c>
       <c r="G4" t="n">
         <v>18679.7878825621</v>
       </c>
       <c r="H4" t="n">
-        <v>18679.78788256211</v>
+        <v>18679.78788256209</v>
       </c>
       <c r="I4" t="n">
+        <v>31781.80655567144</v>
+      </c>
+      <c r="J4" t="n">
+        <v>31781.80655567143</v>
+      </c>
+      <c r="K4" t="n">
+        <v>31781.80655567144</v>
+      </c>
+      <c r="L4" t="n">
         <v>31781.80655567142</v>
       </c>
-      <c r="J4" t="n">
-        <v>31781.80655567142</v>
-      </c>
-      <c r="K4" t="n">
-        <v>31781.80655567143</v>
-      </c>
-      <c r="L4" t="n">
-        <v>31781.80655567143</v>
-      </c>
       <c r="M4" t="n">
-        <v>18679.7878825621</v>
+        <v>18679.78788256209</v>
       </c>
       <c r="N4" t="n">
         <v>18679.78788256209</v>
@@ -26459,7 +26459,7 @@
         <v>18679.78788256209</v>
       </c>
       <c r="P4" t="n">
-        <v>18679.7878825621</v>
+        <v>18679.78788256209</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>38742.42450886575</v>
+        <v>38742.42450886574</v>
       </c>
       <c r="F5" t="n">
-        <v>38742.42450886575</v>
+        <v>38742.42450886574</v>
       </c>
       <c r="G5" t="n">
-        <v>38742.42450886575</v>
+        <v>38742.42450886574</v>
       </c>
       <c r="H5" t="n">
-        <v>38742.42450886575</v>
+        <v>38742.42450886574</v>
       </c>
       <c r="I5" t="n">
         <v>42402.35708297614</v>
@@ -26502,16 +26502,16 @@
         <v>42402.35708297614</v>
       </c>
       <c r="M5" t="n">
-        <v>38742.42450886574</v>
+        <v>38742.42450886573</v>
       </c>
       <c r="N5" t="n">
-        <v>38742.42450886574</v>
+        <v>38742.42450886573</v>
       </c>
       <c r="O5" t="n">
-        <v>38742.42450886574</v>
+        <v>38742.42450886573</v>
       </c>
       <c r="P5" t="n">
-        <v>38742.42450886574</v>
+        <v>38742.42450886573</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36706.39961509162</v>
+        <v>36697.59992946216</v>
       </c>
       <c r="C6" t="n">
-        <v>36706.39961509145</v>
+        <v>36697.59992946222</v>
       </c>
       <c r="D6" t="n">
-        <v>36706.3996150915</v>
+        <v>36697.59992946227</v>
       </c>
       <c r="E6" t="n">
-        <v>-378239.4999657812</v>
+        <v>-378947.8967099954</v>
       </c>
       <c r="F6" t="n">
-        <v>181888.8559972629</v>
+        <v>181180.4592530487</v>
       </c>
       <c r="G6" t="n">
-        <v>181888.855997263</v>
+        <v>181180.4592530487</v>
       </c>
       <c r="H6" t="n">
-        <v>181888.8559972629</v>
+        <v>181180.4592530487</v>
       </c>
       <c r="I6" t="n">
-        <v>171289.0104247037</v>
+        <v>170665.8812004198</v>
       </c>
       <c r="J6" t="n">
-        <v>187296.4599319408</v>
+        <v>186673.3307076569</v>
       </c>
       <c r="K6" t="n">
-        <v>187296.4599319407</v>
+        <v>186673.3307076568</v>
       </c>
       <c r="L6" t="n">
-        <v>187296.4599319407</v>
+        <v>186673.3307076568</v>
       </c>
       <c r="M6" t="n">
-        <v>85555.03216040431</v>
+        <v>84846.63541618999</v>
       </c>
       <c r="N6" t="n">
-        <v>181888.8559972629</v>
+        <v>181180.4592530486</v>
       </c>
       <c r="O6" t="n">
-        <v>181888.855997263</v>
+        <v>181180.4592530487</v>
       </c>
       <c r="P6" t="n">
-        <v>181888.8559972629</v>
+        <v>181180.4592530487</v>
       </c>
     </row>
   </sheetData>
@@ -26798,22 +26798,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>446.7623813221048</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="F4" t="n">
-        <v>446.7623813221048</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="G4" t="n">
-        <v>446.7623813221048</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="H4" t="n">
-        <v>446.7623813221048</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="I4" t="n">
-        <v>506.95864076471</v>
+        <v>506.9586407647101</v>
       </c>
       <c r="J4" t="n">
-        <v>506.95864076471</v>
+        <v>506.9586407647101</v>
       </c>
       <c r="K4" t="n">
         <v>506.9586407647101</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>446.7623813221048</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.1962594426052</v>
+        <v>60.19625944260527</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>386.566121879499</v>
+        <v>386.5661218794992</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>446.7623813221048</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J12" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K12" t="n">
-        <v>446.7623813221048</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L12" t="n">
-        <v>291.9388355060938</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M12" t="n">
         <v>231.9175093736268</v>
@@ -35509,7 +35509,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.14567311248757</v>
+        <v>261.1034476891505</v>
       </c>
       <c r="R12" t="n">
         <v>11.934615907475</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K13" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L13" t="n">
-        <v>344.6244299793386</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M13" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N13" t="n">
         <v>430.2493691287167</v>
       </c>
       <c r="O13" t="n">
-        <v>397.5670915932262</v>
+        <v>79.30975884702372</v>
       </c>
       <c r="P13" t="n">
-        <v>60.06512077738009</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.8455216059803</v>
+        <v>87.69830726770546</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J15" t="n">
-        <v>170.9556453206523</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K15" t="n">
-        <v>128.6618609232977</v>
+        <v>300.6196354999602</v>
       </c>
       <c r="L15" t="n">
         <v>191.9518803437599</v>
       </c>
       <c r="M15" t="n">
-        <v>446.7623813221048</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N15" t="n">
         <v>243.9501214020111</v>
@@ -35749,7 +35749,7 @@
         <v>89.14567311248757</v>
       </c>
       <c r="R15" t="n">
-        <v>100.7929153791732</v>
+        <v>11.934615907475</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K16" t="n">
         <v>267.3956797008439</v>
@@ -35813,13 +35813,13 @@
         <v>404.9252486033274</v>
       </c>
       <c r="M16" t="n">
-        <v>436.2284328939257</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N16" t="n">
         <v>94.86118584832728</v>
       </c>
       <c r="O16" t="n">
-        <v>79.30975884702372</v>
+        <v>356.0012730357676</v>
       </c>
       <c r="P16" t="n">
         <v>323.5979323663882</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J18" t="n">
-        <v>260.7679656641797</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K18" t="n">
         <v>128.6618609232977</v>
@@ -35977,16 +35977,16 @@
         <v>243.9501214020111</v>
       </c>
       <c r="O18" t="n">
-        <v>446.7623813221048</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P18" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.14567311248757</v>
+        <v>172.2451482174521</v>
       </c>
       <c r="R18" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K19" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L19" t="n">
-        <v>344.6244299793386</v>
+        <v>333.1659046968334</v>
       </c>
       <c r="M19" t="n">
         <v>442.3298337384635</v>
       </c>
       <c r="N19" t="n">
-        <v>430.2493691287167</v>
+        <v>94.86118584832728</v>
       </c>
       <c r="O19" t="n">
-        <v>397.5670915932262</v>
+        <v>79.30975884702372</v>
       </c>
       <c r="P19" t="n">
-        <v>60.06512077738009</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.8455216059803</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>107.9084797608303</v>
+        <v>107.9084797608297</v>
       </c>
       <c r="K20" t="n">
         <v>182.4835053289586</v>
       </c>
       <c r="L20" t="n">
-        <v>241.4830999614339</v>
+        <v>241.4830999614341</v>
       </c>
       <c r="M20" t="n">
         <v>281.6521564735544</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J21" t="n">
-        <v>260.7679656641797</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K21" t="n">
         <v>128.6618609232977</v>
@@ -36214,16 +36214,16 @@
         <v>243.9501214020111</v>
       </c>
       <c r="O21" t="n">
-        <v>446.7623813221048</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P21" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.14567311248757</v>
+        <v>172.2451482174521</v>
       </c>
       <c r="R21" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36293,13 +36293,13 @@
         <v>430.2493691287167</v>
       </c>
       <c r="O22" t="n">
-        <v>86.27103281733439</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P22" t="n">
-        <v>323.5979323663882</v>
+        <v>139.8513283438665</v>
       </c>
       <c r="Q22" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>107.9084797608297</v>
+        <v>217.9828938404983</v>
       </c>
       <c r="K23" t="n">
         <v>182.4835053289586</v>
@@ -36366,7 +36366,7 @@
         <v>241.4830999614339</v>
       </c>
       <c r="M23" t="n">
-        <v>506.95864076471</v>
+        <v>281.6521564735544</v>
       </c>
       <c r="N23" t="n">
         <v>288.0970498876284</v>
@@ -36381,7 +36381,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R23" t="n">
-        <v>59.86663033441465</v>
+        <v>175.0987005459018</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J24" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K24" t="n">
-        <v>381.2371422635199</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L24" t="n">
-        <v>506.95864076471</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M24" t="n">
         <v>231.9175093736268</v>
@@ -36457,7 +36457,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q24" t="n">
-        <v>89.14567311248757</v>
+        <v>410.5980138891824</v>
       </c>
       <c r="R24" t="n">
         <v>100.7929153791732</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K25" t="n">
         <v>59.03184779608208</v>
@@ -36533,10 +36533,10 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P25" t="n">
-        <v>238.1171678251208</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.8455216059803</v>
+        <v>131.2396255917653</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>346.2613454325598</v>
+        <v>107.9084797608297</v>
       </c>
       <c r="K26" t="n">
         <v>182.4835053289586</v>
@@ -36612,13 +36612,13 @@
         <v>266.5865405916856</v>
       </c>
       <c r="P26" t="n">
-        <v>213.4113988914702</v>
+        <v>323.4858129711387</v>
       </c>
       <c r="Q26" t="n">
         <v>140.5560401330744</v>
       </c>
       <c r="R26" t="n">
-        <v>46.82024895384008</v>
+        <v>175.0987005459018</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J27" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K27" t="n">
         <v>128.6618609232977</v>
@@ -36682,19 +36682,19 @@
         <v>191.9518803437599</v>
       </c>
       <c r="M27" t="n">
-        <v>506.95864076471</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N27" t="n">
-        <v>262.403921252846</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O27" t="n">
-        <v>506.95864076471</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P27" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q27" t="n">
-        <v>89.14567311248757</v>
+        <v>410.5980138891824</v>
       </c>
       <c r="R27" t="n">
         <v>100.7929153791732</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K28" t="n">
-        <v>267.3956797008439</v>
+        <v>59.03184779608208</v>
       </c>
       <c r="L28" t="n">
-        <v>236.1305870881741</v>
+        <v>319.4444840620602</v>
       </c>
       <c r="M28" t="n">
         <v>442.3298337384635</v>
@@ -36767,13 +36767,13 @@
         <v>430.2493691287167</v>
       </c>
       <c r="O28" t="n">
-        <v>79.30975884702372</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P28" t="n">
         <v>323.5979323663882</v>
       </c>
       <c r="Q28" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>231.9175093736268</v>
       </c>
       <c r="N30" t="n">
-        <v>244.1898959900267</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O30" t="n">
         <v>214.076785340472</v>
@@ -36931,10 +36931,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q30" t="n">
-        <v>499.2165387728651</v>
+        <v>410.5980138891824</v>
       </c>
       <c r="R30" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>16.28530536328818</v>
       </c>
       <c r="K31" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L31" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M31" t="n">
-        <v>442.3298337384635</v>
+        <v>148.4852372924346</v>
       </c>
       <c r="N31" t="n">
         <v>430.2493691287167</v>
@@ -37007,7 +37007,7 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P31" t="n">
-        <v>238.1171678251211</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q31" t="n">
         <v>18.8455216059803</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>107.9084797608297</v>
+        <v>346.2613454325598</v>
       </c>
       <c r="K32" t="n">
         <v>182.4835053289586</v>
@@ -37089,10 +37089,10 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.6304542127429</v>
+        <v>140.5560401330744</v>
       </c>
       <c r="R32" t="n">
-        <v>175.0987005459018</v>
+        <v>46.82024895384008</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K33" t="n">
         <v>128.6618609232977</v>
       </c>
       <c r="L33" t="n">
-        <v>311.2965916946775</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M33" t="n">
         <v>231.9175093736268</v>
       </c>
       <c r="N33" t="n">
-        <v>506.9586407647101</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O33" t="n">
-        <v>506.9586407647101</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P33" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q33" t="n">
-        <v>89.14567311248757</v>
+        <v>499.2165387728651</v>
       </c>
       <c r="R33" t="n">
-        <v>11.934615907475</v>
+        <v>30.9691354004739</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,25 +37229,25 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K34" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L34" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M34" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N34" t="n">
         <v>430.2493691287167</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5670915932262</v>
+        <v>258.9659554271084</v>
       </c>
       <c r="P34" t="n">
-        <v>172.459224763165</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.8455216059803</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37326,10 +37326,10 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q35" t="n">
-        <v>140.5560401330746</v>
+        <v>140.5560401330744</v>
       </c>
       <c r="R35" t="n">
-        <v>46.82024895384008</v>
+        <v>46.82024895383996</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J36" t="n">
         <v>302.7010421641655</v>
@@ -37405,10 +37405,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q36" t="n">
-        <v>279.8981925941342</v>
+        <v>172.2451482174519</v>
       </c>
       <c r="R36" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,7 +37469,7 @@
         <v>59.03184779608208</v>
       </c>
       <c r="L37" t="n">
-        <v>217.0749752259671</v>
+        <v>399.3489511365322</v>
       </c>
       <c r="M37" t="n">
         <v>442.3298337384635</v>
@@ -37478,13 +37478,13 @@
         <v>430.2493691287167</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5670915932262</v>
+        <v>79.30975884702372</v>
       </c>
       <c r="P37" t="n">
-        <v>60.06512077738009</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q37" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>107.9084797608298</v>
+        <v>107.9084797608297</v>
       </c>
       <c r="K38" t="n">
-        <v>182.4835053289586</v>
+        <v>182.4835053289582</v>
       </c>
       <c r="L38" t="n">
         <v>241.4830999614339</v>
@@ -37639,10 +37639,10 @@
         <v>214.076785340472</v>
       </c>
       <c r="P39" t="n">
-        <v>247.0059870384977</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q39" t="n">
-        <v>89.14567311248757</v>
+        <v>172.2451482174519</v>
       </c>
       <c r="R39" t="n">
         <v>100.7929153791732</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K40" t="n">
-        <v>267.3956797008439</v>
+        <v>59.03184779608208</v>
       </c>
       <c r="L40" t="n">
         <v>404.9252486033274</v>
       </c>
       <c r="M40" t="n">
-        <v>93.87897564322566</v>
+        <v>442.3298337384635</v>
       </c>
       <c r="N40" t="n">
         <v>430.2493691287167</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5670915932262</v>
+        <v>337.2662729692365</v>
       </c>
       <c r="P40" t="n">
-        <v>74.19338528191089</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q40" t="n">
         <v>18.8455216059803</v>
@@ -37800,7 +37800,7 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q41" t="n">
-        <v>140.5560401330746</v>
+        <v>140.5560401330744</v>
       </c>
       <c r="R41" t="n">
         <v>46.82024895384008</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J42" t="n">
         <v>302.7010421641655</v>
       </c>
       <c r="K42" t="n">
-        <v>128.6618609232977</v>
+        <v>211.7613360282617</v>
       </c>
       <c r="L42" t="n">
         <v>191.9518803437599</v>
@@ -37879,7 +37879,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q42" t="n">
-        <v>191.0398931224359</v>
+        <v>89.14567311248757</v>
       </c>
       <c r="R42" t="n">
         <v>100.7929153791732</v>
@@ -37940,25 +37940,25 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K43" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L43" t="n">
-        <v>278.9664869173822</v>
+        <v>87.77463119421319</v>
       </c>
       <c r="M43" t="n">
-        <v>442.3298337384635</v>
+        <v>352.3329239606941</v>
       </c>
       <c r="N43" t="n">
         <v>430.2493691287167</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5670915932262</v>
+        <v>79.30975884702372</v>
       </c>
       <c r="P43" t="n">
-        <v>60.06512077738009</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.8455216059803</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R44" t="n">
-        <v>46.82024895384008</v>
+        <v>46.82024895383996</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J45" t="n">
         <v>302.7010421641655</v>
@@ -38116,10 +38116,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q45" t="n">
-        <v>279.8981925941342</v>
+        <v>172.2451482174519</v>
       </c>
       <c r="R45" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K46" t="n">
         <v>267.3956797008439</v>
       </c>
       <c r="L46" t="n">
-        <v>404.9252486033274</v>
+        <v>346.2285795116816</v>
       </c>
       <c r="M46" t="n">
         <v>93.87897564322566</v>
       </c>
       <c r="N46" t="n">
-        <v>118.9533103528245</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5670915932262</v>
+        <v>79.30975884702372</v>
       </c>
       <c r="P46" t="n">
         <v>323.5979323663882</v>
